--- a/app/archives/artist.xlsx
+++ b/app/archives/artist.xlsx
@@ -9,26 +9,26 @@
   <sheets>
     <sheet name="Principal Artist" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Related artists" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="retroboy" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TTF" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="tchelo rodrigues" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Neckklace" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="MC Igu" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Ryu, the Runner" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="The Boy" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Celo1st" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Labbel Rec" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Rudies Flacko" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Recayd Mob" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Mu540" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Yunk Vino" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Leviano" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Brandão85" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Senndy" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Aka Rasta" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Jé Santiago" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="N.A.N.A." sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Danzo" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Pabllo Vittar" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Lexa" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="LUDMILLA" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Luísa Sonza" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="IZA" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Gloria Groove" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="MC Kevinho" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Nego do Borel" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="PEDRO SAMPAIO" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Simone &amp; Simaria" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="DENNIS" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="ANAVITÓRIA" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="MC Mirella" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Valesca Popozuda" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Mc Livinho" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Luan Santana" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Maiara &amp; Maraisa" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Tati Zaqui" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Claudia Leitte" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Naiara Azevedo" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -499,361 +499,361 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Derek</t>
+          <t>Anitta</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>detroit trap brasileiro</t>
+          <t>funk pop, funk rj, pagode baiano, pop, pop nacional</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>414629</v>
+        <v>13171549</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Dos Prédios Deluxe</t>
+          <t>Back for More (with Anitta)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Tendenciosa</t>
+          <t>Back for More (with Anitta)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Veigh, Derek, Nagalli, Honaiser, Toledo, Supernova Ent</t>
+          <t>TOMORROW X TOGETHER, Anitta</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="H2" t="n">
-        <v>195073</v>
+        <v>131037</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Derek</t>
+          <t>Anitta</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>detroit trap brasileiro</t>
+          <t>funk pop, funk rj, pagode baiano, pop, pop nacional</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>414629</v>
+        <v>13171549</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EVDC DELUXE</t>
+          <t>Versions of Me</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Vandame</t>
+          <t>Envolver</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ryu, the Runner, Derek, Neckklace</t>
+          <t>Anitta</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H3" t="n">
-        <v>159298</v>
+        <v>193805</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Derek</t>
+          <t>Anitta</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>detroit trap brasileiro</t>
+          <t>funk pop, funk rj, pagode baiano, pop, pop nacional</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>414629</v>
+        <v>13171549</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Trap The Fato Deluxe</t>
+          <t>Funk Rave</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>VIVÊNCIAS DO TRAP</t>
+          <t>Funk Rave</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Derek, Jé Santiago, Yunk Vino, Nagalli</t>
+          <t>Anitta</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="H4" t="n">
-        <v>157714</v>
+        <v>147201</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Derek</t>
+          <t>Anitta</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>detroit trap brasileiro</t>
+          <t>funk pop, funk rj, pagode baiano, pop, pop nacional</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>414629</v>
+        <v>13171549</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Trap The Fato Deluxe</t>
+          <t>Downtown</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>BLAH BLAH</t>
+          <t>Downtown</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Derek, Baco Exu do Blues</t>
+          <t>Anitta, J Balvin</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="H5" t="n">
-        <v>202718</v>
+        <v>193456</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Derek</t>
+          <t>Anitta</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>detroit trap brasileiro</t>
+          <t>funk pop, funk rj, pagode baiano, pop, pop nacional</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>414629</v>
+        <v>13171549</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Trap The Fato</t>
+          <t>Nu</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>BARRAS &amp; BARRAS</t>
+          <t>Nu</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Derek, tchelo rodrigues, retroboy, TTF</t>
+          <t>Anitta, HITMAKER</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="H6" t="n">
-        <v>218603</v>
+        <v>167076</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Derek</t>
+          <t>Anitta</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>detroit trap brasileiro</t>
+          <t>funk pop, funk rj, pagode baiano, pop, pop nacional</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>414629</v>
+        <v>13171549</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Ascensão do Cisne Negro</t>
+          <t>Back for More (with Anitta)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Não Me Para</t>
+          <t>Back for More (with Anitta) (Performance Ver.)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rock Danger, Major RD, Derek</t>
+          <t>TOMORROW X TOGETHER, Anitta</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="H7" t="n">
-        <v>209013</v>
+        <v>172438</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Derek</t>
+          <t>Anitta</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>detroit trap brasileiro</t>
+          <t>funk pop, funk rj, pagode baiano, pop, pop nacional</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>414629</v>
+        <v>13171549</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Memória</t>
+          <t>Pilantra</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Memória</t>
+          <t>Pilantra</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Aklipe44, Derek, WMBR</t>
+          <t>Jão, Anitta</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="H8" t="n">
-        <v>135175</v>
+        <v>192708</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Derek</t>
+          <t>Anitta</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>detroit trap brasileiro</t>
+          <t>funk pop, funk rj, pagode baiano, pop, pop nacional</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>414629</v>
+        <v>13171549</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Trap The Fato</t>
+          <t>Funk Generation: A Favela Love Story</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>NÓIS TA FORGANO</t>
+          <t>Used To Be</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Derek, Kyan, Celo1st, Neckklace, TTF</t>
+          <t>Anitta</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="H9" t="n">
-        <v>164892</v>
+        <v>172950</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Derek</t>
+          <t>Anitta</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>detroit trap brasileiro</t>
+          <t>funk pop, funk rj, pagode baiano, pop, pop nacional</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>414629</v>
+        <v>13171549</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Trap The Fato Deluxe</t>
+          <t>Ai Papai</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>PORNSTAR</t>
+          <t>Ai Papai</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Derek, The Boy</t>
+          <t>Anitta, Mc Danny, HITMAKER</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H10" t="n">
-        <v>194430</v>
+        <v>148048</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Derek</t>
+          <t>Anitta</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>detroit trap brasileiro</t>
+          <t>funk pop, funk rj, pagode baiano, pop, pop nacional</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>414629</v>
+        <v>13171549</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Trap The Fato</t>
+          <t>Cupido</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>TRAP THE FATO</t>
+          <t>La Loto</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Derek, Leviano, Brandão85, éoTGL, TTF</t>
+          <t>TINI, Becky G, Anitta</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" t="n">
-        <v>216329</v>
+        <v>190666</v>
       </c>
     </row>
   </sheetData>
@@ -920,361 +920,361 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Celo1st</t>
+          <t>Nego do Borel</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>funk carioca, funk das antigas, funk ostentacao, funk pop, sertanejo universitario</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6786</v>
+        <v>2595378</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Trap The Fato</t>
+          <t>Você Partiu Meu Coração (feat. Anitta &amp; Wesley Safadão)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>NÓIS TA FORGANO</t>
+          <t>Você Partiu Meu Coração (feat. Anitta &amp; Wesley Safadão)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Derek, Kyan, Celo1st, Neckklace, TTF</t>
+          <t>Nego do Borel, Anitta, Wesley Safadão</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H2" t="n">
-        <v>164892</v>
+        <v>179000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Celo1st</t>
+          <t>Nego do Borel</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>funk carioca, funk das antigas, funk ostentacao, funk pop, sertanejo universitario</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6786</v>
+        <v>2595378</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Trap The Fato</t>
+          <t>Sensacional (feat. Cacife Clandestino &amp; MC Kevin o Chris)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SCOOBY DOO</t>
+          <t>Sensacional (feat. Cacife Clandestino &amp; MC Kevin o Chris)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Derek, Abbot, Celo1st, Neckklace, TTF</t>
+          <t>WC no Beat, Nego do Borel, Matuê, Cacife Clandestino, MC Kevin o Chris</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H3" t="n">
-        <v>212307</v>
+        <v>225077</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Celo1st</t>
+          <t>Nego do Borel</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>funk carioca, funk das antigas, funk ostentacao, funk pop, sertanejo universitario</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6786</v>
+        <v>2595378</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>O Menino do Cabelo Rosa</t>
+          <t>Me Solta</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sem Medo</t>
+          <t>Me Solta</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CJota, Celo1st</t>
+          <t>Nego do Borel, Rennan da Penha</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H4" t="n">
-        <v>139411</v>
+        <v>161096</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Celo1st</t>
+          <t>Nego do Borel</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>funk carioca, funk das antigas, funk ostentacao, funk pop, sertanejo universitario</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6786</v>
+        <v>2595378</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Trap The Fato</t>
+          <t>Nego do Borel - Ao Vivo</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>LUÍSA SONZA</t>
+          <t>Princesa - Ao Vivo</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Derek, Sueth, Celo1st, DatBoyTwnty, TTF</t>
+          <t>Nego do Borel, Matuê</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H5" t="n">
-        <v>187941</v>
+        <v>122784</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Celo1st</t>
+          <t>Nego do Borel</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>funk carioca, funk das antigas, funk ostentacao, funk pop, sertanejo universitario</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6786</v>
+        <v>2595378</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Trap de Gringo</t>
+          <t>Nego Resolve</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Trap de Gringo</t>
+          <t>Não Me Deixe Sozinho</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Kyan, Yunk Vino, Celo1st</t>
+          <t>Nego do Borel</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H6" t="n">
-        <v>160888</v>
+        <v>151680</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Celo1st</t>
+          <t>Nego do Borel</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>funk carioca, funk das antigas, funk ostentacao, funk pop, sertanejo universitario</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6786</v>
+        <v>2595378</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Colapso</t>
+          <t>Esqueci Como Namora (feat. Maiara &amp; Maraisa)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Loop</t>
+          <t>Esqueci Como Namora (feat. Maiara &amp; Maraisa)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Leozin, Veigh, Nagalli, Celo1st</t>
+          <t>Nego do Borel, Maiara &amp; Maraisa</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H7" t="n">
-        <v>186475</v>
+        <v>182626</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Celo1st</t>
+          <t>Nego do Borel</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>funk carioca, funk das antigas, funk ostentacao, funk pop, sertanejo universitario</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6786</v>
+        <v>2595378</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Intenção</t>
+          <t>Contatinho (feat. Luan Santana)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Intenção</t>
+          <t>Contatinho (feat. Luan Santana)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CJota, Celo1st</t>
+          <t>Nego do Borel, Luan Santana</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H8" t="n">
-        <v>147762</v>
+        <v>180666</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Celo1st</t>
+          <t>Nego do Borel</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>funk carioca, funk das antigas, funk ostentacao, funk pop, sertanejo universitario</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6786</v>
+        <v>2595378</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Trap The Fato</t>
+          <t>MC Nego do Borel</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>TUDO FREE</t>
+          <t>Os Cara do Momento</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Derek, Celo1st, TTF</t>
+          <t>Nego do Borel</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="H9" t="n">
-        <v>174222</v>
+        <v>161000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Celo1st</t>
+          <t>Nego do Borel</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>funk carioca, funk das antigas, funk ostentacao, funk pop, sertanejo universitario</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6786</v>
+        <v>2595378</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>SorryMom2023 (Remix)</t>
+          <t>MC Nego do Borel</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SorryMom2023 - Remix</t>
+          <t>Brincadeira das Maravilhas</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Duzz, Ecologyk, Celo1st</t>
+          <t>Nego do Borel</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="H10" t="n">
-        <v>169714</v>
+        <v>167973</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Celo1st</t>
+          <t>Nego do Borel</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>funk carioca, funk das antigas, funk ostentacao, funk pop, sertanejo universitario</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6786</v>
+        <v>2595378</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Clack (3x)</t>
+          <t>Eu Vacilei Mas Eu Te Amo</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Clack (3x)</t>
+          <t>Eu Vacilei Mas Eu Te Amo</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Derek, Celo1st, Ecologyk</t>
+          <t>Nego do Borel</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H11" t="n">
-        <v>118250</v>
+        <v>163720</v>
       </c>
     </row>
   </sheetData>
@@ -1341,361 +1341,361 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Labbel Rec</t>
+          <t>PEDRO SAMPAIO</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>funk carioca, funk rj</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5101</v>
+        <v>2298367</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Meu Amigo Diário, Vol. 1 - M.A.D</t>
+          <t>Carinha de Bebê</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Dialogo</t>
+          <t>Carinha de Bebê</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Yunk Vino, D Santana, Labbel Rec</t>
+          <t>Ana Castela, PEDRO SAMPAIO</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H2" t="n">
-        <v>141639</v>
+        <v>175725</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Labbel Rec</t>
+          <t>PEDRO SAMPAIO</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>funk carioca, funk rj</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5101</v>
+        <v>2298367</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Vlife</t>
+          <t>JOIA RARA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Vlife</t>
+          <t>JOIA RARA</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Yunk Vino, WIU, Labbel Rec</t>
+          <t>PEDRO SAMPAIO, Mc Tato</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="H3" t="n">
-        <v>160014</v>
+        <v>152888</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Labbel Rec</t>
+          <t>PEDRO SAMPAIO</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>funk carioca, funk rj</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5101</v>
+        <v>2298367</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Red Dot</t>
+          <t>CHAMA MEU NOME</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Red Dot</t>
+          <t>DANÇARINA</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Yunk Vino, Caio Passos, Labbel Rec</t>
+          <t>PEDRO SAMPAIO, Mc Pedrinho</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H4" t="n">
-        <v>128000</v>
+        <v>110222</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Labbel Rec</t>
+          <t>PEDRO SAMPAIO</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>funk carioca, funk rj</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5101</v>
+        <v>2298367</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FETTI</t>
+          <t>DANÇARINA (feat. Nicky Jam, MC Pedrinho) [Remix]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FETTI</t>
+          <t>DANÇARINA (feat. Nicky Jam, MC Pedrinho) - Remix</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Yunk Vino, Nagalli, Labbel Rec, Bvga Beatz, Wylo</t>
+          <t>PEDRO SAMPAIO, Anitta, Dadju, Mc Pedrinho, Nicky Jam</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H5" t="n">
-        <v>141176</v>
+        <v>212000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Labbel Rec</t>
+          <t>PEDRO SAMPAIO</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>funk carioca, funk rj</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5101</v>
+        <v>2298367</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Meu Amigo Diário, Vol. 1 - M.A.D</t>
+          <t>CHAMA MEU NOME</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Animais</t>
+          <t>GALOPA</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Yunk Vino, Thermo Beats, Labbel Rec</t>
+          <t>PEDRO SAMPAIO</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="H6" t="n">
-        <v>183652</v>
+        <v>140500</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Labbel Rec</t>
+          <t>PEDRO SAMPAIO</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>funk carioca, funk rj</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5101</v>
+        <v>2298367</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Tiro Foto, Mas Não Posto</t>
+          <t>ENSAIO DAS MARAVILHAS</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Tiro Foto, Mas Não Posto</t>
+          <t>ENSAIO DAS MARAVILHAS</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Danzo, Greezy, Labbel Rec</t>
+          <t>PEDRO SAMPAIO, Thaysa Maravilha</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="H7" t="n">
-        <v>144761</v>
+        <v>176000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Labbel Rec</t>
+          <t>PEDRO SAMPAIO</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>funk carioca, funk rj</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5101</v>
+        <v>2298367</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Meu Amigo Diário, Vol. 1 - M.A.D</t>
+          <t>CHAMA MEU NOME</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Tão Longe</t>
+          <t>ATENÇÃO</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Yunk Vino, Go Dassisti, Labbel Rec</t>
+          <t>PEDRO SAMPAIO, Luísa Sonza</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H8" t="n">
-        <v>136363</v>
+        <v>135111</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Labbel Rec</t>
+          <t>PEDRO SAMPAIO</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>funk carioca, funk rj</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5101</v>
+        <v>2298367</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Nois faz a moda</t>
+          <t>NO CHÃO NOVINHA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Nois faz a moda</t>
+          <t>NO CHÃO NOVINHA</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Danzo, Kyan, Labbel Rec</t>
+          <t>Anitta, PEDRO SAMPAIO</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="H9" t="n">
-        <v>183272</v>
+        <v>136901</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Labbel Rec</t>
+          <t>PEDRO SAMPAIO</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>funk carioca, funk rj</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5101</v>
+        <v>2298367</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Miami Vice</t>
+          <t>SENTADÃO</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Miami Vice</t>
+          <t>SENTADÃO</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Yunk Vino, Labbel Rec, Ecologyk</t>
+          <t>PEDRO SAMPAIO, Felipe Original, JS o Mão de Ouro</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="H10" t="n">
-        <v>172812</v>
+        <v>143448</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Labbel Rec</t>
+          <t>PEDRO SAMPAIO</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>funk carioca, funk rj</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5101</v>
+        <v>2298367</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Subversão</t>
+          <t>AFTER</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Subversão</t>
+          <t>Penetra - Pedro Sampaio Remix</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Labbel Rec, Danzo, MC Cebezinho, Mc Kanhoto, Veigh, MC GP</t>
+          <t>Pabllo Vittar, O Kannalha, PEDRO SAMPAIO</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="H11" t="n">
-        <v>312289</v>
+        <v>150824</v>
       </c>
     </row>
   </sheetData>
@@ -1762,361 +1762,361 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Rudies Flacko</t>
+          <t>Simone Mendes</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>plug brasileiro, speed plug brasileiro</t>
+          <t>sertanejo</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>46391</v>
+        <v>417234</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SHH</t>
+          <t>Cintilante (Ao Vivo)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CALA-BOCA, TRABALHO</t>
+          <t>Erro Gostoso - Ao Vivo</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Rudies Flacko, Aka Rasta</t>
+          <t>Simone Mendes</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="H2" t="n">
-        <v>107055</v>
+        <v>178811</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Rudies Flacko</t>
+          <t>Simone Mendes</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>plug brasileiro, speed plug brasileiro</t>
+          <t>sertanejo</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>46391</v>
+        <v>417234</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SHH</t>
+          <t>Manda um Oi (Ao Vivo)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CALA-BOCA VADIA</t>
+          <t>Manda um Oi - Ao Vivo</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rudies Flacko, mavyrmldy</t>
+          <t>Guilherme &amp; Benuto, Simone Mendes</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="H3" t="n">
-        <v>107055</v>
+        <v>166490</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Rudies Flacko</t>
+          <t>Simone Mendes</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>plug brasileiro, speed plug brasileiro</t>
+          <t>sertanejo</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>46391</v>
+        <v>417234</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SHH</t>
+          <t>Cintilante (Ao Vivo)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>DFRT</t>
+          <t>Dois Fugitivos - Ao Vivo</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rudies Flacko</t>
+          <t>Simone Mendes</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="H4" t="n">
-        <v>136422</v>
+        <v>173370</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Rudies Flacko</t>
+          <t>Simone Mendes</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>plug brasileiro, speed plug brasileiro</t>
+          <t>sertanejo</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>46391</v>
+        <v>417234</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Apolo Nästy</t>
+          <t>Daqui pra Sempre</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Como que vou ficar broke</t>
+          <t>Daqui pra Sempre</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Rudies Flacko, Aka Rasta, N.A.N.A.</t>
+          <t>Manu, Simone Mendes</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="H5" t="n">
-        <v>224615</v>
+        <v>202644</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Rudies Flacko</t>
+          <t>Simone Mendes</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>plug brasileiro, speed plug brasileiro</t>
+          <t>sertanejo</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>46391</v>
+        <v>417234</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Bucoração</t>
+          <t>Não Vai Ver Nunca (Boiadeira Internacional)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Bucoração</t>
+          <t>Não Vai Ver Nunca</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rudies Flacko</t>
+          <t>Ana Castela, Simone Mendes</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="H6" t="n">
-        <v>119481</v>
+        <v>167054</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Rudies Flacko</t>
+          <t>Simone Mendes</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>plug brasileiro, speed plug brasileiro</t>
+          <t>sertanejo</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>46391</v>
+        <v>417234</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Apolo Nästy</t>
+          <t>Ao Vivo Em Goiânia, Vol. 2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Coração Gelado</t>
+          <t>Beijoqueira - Ao Vivo</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rudies Flacko, CJota</t>
+          <t>Thiago Carvalho, Simone Mendes</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="H7" t="n">
-        <v>157714</v>
+        <v>171648</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Rudies Flacko</t>
+          <t>Simone Mendes</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>plug brasileiro, speed plug brasileiro</t>
+          <t>sertanejo</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>46391</v>
+        <v>417234</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ZIMA</t>
+          <t>Você Mereceu (Ao Vivo)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Tudo de Novo</t>
+          <t>Você Mereceu - Ao Vivo</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Aka Rasta, Rudies Flacko</t>
+          <t>Simone Mendes</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="H8" t="n">
-        <v>120764</v>
+        <v>162963</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Rudies Flacko</t>
+          <t>Simone Mendes</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>plug brasileiro, speed plug brasileiro</t>
+          <t>sertanejo</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>46391</v>
+        <v>417234</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SHH</t>
+          <t>Oceano (Ao Vivo)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>GLORD</t>
+          <t>Oceano - Ao Vivo</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rudies Flacko</t>
+          <t>Felipe e Rodrigo, Simone Mendes</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="H9" t="n">
-        <v>78003</v>
+        <v>174105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Rudies Flacko</t>
+          <t>Simone Mendes</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>plug brasileiro, speed plug brasileiro</t>
+          <t>sertanejo</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>46391</v>
+        <v>417234</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>SHH</t>
+          <t>NOSSA DISTÂNCIA</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>LEGO</t>
+          <t>NOSSA DISTÂNCIA</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rudies Flacko, mavyrmldy</t>
+          <t>Luan Santana, Simone Mendes</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="H10" t="n">
-        <v>144657</v>
+        <v>156940</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Rudies Flacko</t>
+          <t>Simone Mendes</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>plug brasileiro, speed plug brasileiro</t>
+          <t>sertanejo</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>46391</v>
+        <v>417234</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PINGA</t>
+          <t>Oi Erro (Ao Vivo)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>PINGA</t>
+          <t>Oi Erro - Ao Vivo</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rudies Flacko, Aka Rasta, N.A.N.A.</t>
+          <t>Simone Mendes</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="H11" t="n">
-        <v>178790</v>
+        <v>160964</v>
       </c>
     </row>
   </sheetData>
@@ -2183,361 +2183,361 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Recayd Mob</t>
+          <t>DENNIS</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>funk carioca, funk das antigas, sertanejo universitario</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>624561</v>
+        <v>2169248</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Calzone Tapes 3</t>
+          <t>Tá OK</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Lean na Fanta (feat. Derek, Dfideliz, MC Igu &amp; Jé Santiago)</t>
+          <t>Tá OK</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Recayd Mob, Derek, Dfideliz, Jé Santiago, MC Igu</t>
+          <t>DENNIS, MC Kevin o Chris</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="H2" t="n">
-        <v>200533</v>
+        <v>92093</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Recayd Mob</t>
+          <t>DENNIS</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>funk carioca, funk das antigas, sertanejo universitario</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>624561</v>
+        <v>2169248</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Plaqtudum</t>
+          <t>Tá OK (Remix)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Plaqtudum</t>
+          <t>Tá OK (Remix)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Recayd Mob, Derek, Dfideliz, Jé Santiago</t>
+          <t>DENNIS, MC Kevin o Chris, Maluma, KAROL G</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="H3" t="n">
-        <v>175440</v>
+        <v>171760</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Recayd Mob</t>
+          <t>DENNIS</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>funk carioca, funk das antigas, sertanejo universitario</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>624561</v>
+        <v>2169248</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Mlks de Sp</t>
+          <t>Cria do Rio</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Mlks de Sp</t>
+          <t>Cria do Rio</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Recayd Mob, Dfideliz, MC Igu, Jé Santiago, Derek</t>
+          <t>DENNIS, Mc Poze do Rodo</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H4" t="n">
-        <v>195795</v>
+        <v>106784</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Recayd Mob</t>
+          <t>DENNIS</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>funk carioca, funk das antigas, sertanejo universitario</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>624561</v>
+        <v>2169248</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>POC POC</t>
+          <t>Sou Teu Fã</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>POC POC</t>
+          <t>Sou Teu Fã</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Recayd Mob, Dfideliz, Derek, Jé Santiago, MC Igu, N.A.N.A., BONE, The Boy</t>
+          <t>DENNIS, Bruno Martini, Vitin</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="H5" t="n">
-        <v>223732</v>
+        <v>170956</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Recayd Mob</t>
+          <t>DENNIS</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>funk carioca, funk das antigas, sertanejo universitario</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>624561</v>
+        <v>2169248</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Calzone Tapes 3</t>
+          <t>Agora é Tudo Meu</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Vícios (feat. The Boy, Jé Santiago, N.A.N.A. &amp; Dfideliz)</t>
+          <t>Agora é Tudo Meu</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Recayd Mob, Dfideliz, Jé Santiago, N.A.N.A., The Boy</t>
+          <t>DENNIS, MC Kevinho</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="H6" t="n">
-        <v>232564</v>
+        <v>171998</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Recayd Mob</t>
+          <t>DENNIS</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>funk carioca, funk das antigas, sertanejo universitario</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>624561</v>
+        <v>2169248</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Calzone Tapes, Vol. 2</t>
+          <t>Deixa de Onda (Porra Nenhuma)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Flack Jack</t>
+          <t>Deixa de Onda (Porra Nenhuma)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Recayd Mob, BONE, Derek, Dfideliz, MC Igu, Jé Santiago</t>
+          <t>DENNIS, Xamã, LUDMILLA</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="H7" t="n">
-        <v>241879</v>
+        <v>184999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Recayd Mob</t>
+          <t>DENNIS</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>funk carioca, funk das antigas, sertanejo universitario</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>624561</v>
+        <v>2169248</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Calzone Tapes 3</t>
+          <t>Só Você</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Toolio (feat. Derek, MC Igu, Jé Santiago &amp; Dfideliz)</t>
+          <t>Só Você</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Recayd Mob, Derek, Dfideliz, Jé Santiago, MC Igu</t>
+          <t>DENNIS, MC G15</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="H8" t="n">
-        <v>231584</v>
+        <v>161444</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Recayd Mob</t>
+          <t>DENNIS</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>funk carioca, funk das antigas, sertanejo universitario</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>624561</v>
+        <v>2169248</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Eu Só Deslizo (feat. Jé Santiago &amp; MC Igu)</t>
+          <t>Medley da Gaiola (DENNIS Remix)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Eu Só Deslizo (feat. Jé Santiago &amp; MC Igu)</t>
+          <t>Medley da Gaiola - DENNIS Remix</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Recayd Mob, Derek, Dfideliz, Jé Santiago, MC Igu</t>
+          <t>MC Kevin o Chris, DENNIS</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="H9" t="n">
-        <v>240027</v>
+        <v>239999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Recayd Mob</t>
+          <t>DENNIS</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>funk carioca, funk das antigas, sertanejo universitario</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>624561</v>
+        <v>2169248</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Calzone Tapes 3</t>
+          <t>Isso Que é Vida</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Trap (feat. Dfideliz, MC Igu, Jé Santiago &amp; Derek)</t>
+          <t>Isso Que é Vida</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Recayd Mob, Derek, Dfideliz, Jé Santiago, MC Igu</t>
+          <t>DENNIS, Cantini</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="H10" t="n">
-        <v>237877</v>
+        <v>159458</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Recayd Mob</t>
+          <t>DENNIS</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>funk carioca, funk das antigas, sertanejo universitario</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>624561</v>
+        <v>2169248</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Calzone Tapes 3</t>
+          <t>Malandramente</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Rich Nigg* Sh*t (feat. MC Igu, Sidoka, Derek &amp; Jé Santiago)</t>
+          <t>Malandramente</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Recayd Mob, Derek, Jé Santiago, MC Igu, Sidoka</t>
+          <t>DENNIS, MC Nandinho, Nego Bam</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="H11" t="n">
-        <v>268288</v>
+        <v>171692</v>
       </c>
     </row>
   </sheetData>
@@ -2604,361 +2604,361 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Mu540</t>
+          <t>ANAVITÓRIA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>chill baile, trap funk</t>
+          <t>folk brasileiro, nova mpb, pop lgbtq+ brasileira, pop nacional</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>32972</v>
+        <v>6900686</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>UM Quebrada Inteligente</t>
+          <t>Pupila</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>tipo, sonho de consumo!</t>
+          <t>Pupila</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Kyan, Mu540, Tasha &amp; Tracie</t>
+          <t>ANAVITÓRIA, Vitor Kley</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H2" t="n">
-        <v>147692</v>
+        <v>202287</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Mu540</t>
+          <t>ANAVITÓRIA</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>chill baile, trap funk</t>
+          <t>folk brasileiro, nova mpb, pop lgbtq+ brasileira, pop nacional</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>32972</v>
+        <v>6900686</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>UM Quebrada Inteligente</t>
+          <t>ANAVITÓRIA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>brinks!</t>
+          <t>Trevo (Tu)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kyan, Mu540</t>
+          <t>ANAVITÓRIA, TIAGO IORC</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H3" t="n">
-        <v>155076</v>
+        <v>205467</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mu540</t>
+          <t>ANAVITÓRIA</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>chill baile, trap funk</t>
+          <t>folk brasileiro, nova mpb, pop lgbtq+ brasileira, pop nacional</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>32972</v>
+        <v>6900686</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>UM Quebrada Inteligente</t>
+          <t>Fica</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Fantástico Mundo da Oakley - Bonus Track</t>
+          <t>Fica</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Kyan, Mu540</t>
+          <t>ANAVITÓRIA, Matheus &amp; Kauan</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H4" t="n">
-        <v>200000</v>
+        <v>184267</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Mu540</t>
+          <t>ANAVITÓRIA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>chill baile, trap funk</t>
+          <t>folk brasileiro, nova mpb, pop lgbtq+ brasileira, pop nacional</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>32972</v>
+        <v>6900686</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>UM Quebrada Inteligente</t>
+          <t>COR</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>um quebrada inteligente!</t>
+          <t>Tenta acreditar</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kyan, Mu540</t>
+          <t>ANAVITÓRIA</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H5" t="n">
-        <v>116820</v>
+        <v>233986</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Mu540</t>
+          <t>ANAVITÓRIA</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>chill baile, trap funk</t>
+          <t>folk brasileiro, nova mpb, pop lgbtq+ brasileira, pop nacional</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>32972</v>
+        <v>6900686</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Dias Antes de Mandrake</t>
+          <t>O Tempo É Agora</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Baby Cê é Gata</t>
+          <t>Ai, Amor</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Kyan, Mu540</t>
+          <t>ANAVITÓRIA</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="H6" t="n">
-        <v>118976</v>
+        <v>220566</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Mu540</t>
+          <t>ANAVITÓRIA</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>chill baile, trap funk</t>
+          <t>folk brasileiro, nova mpb, pop lgbtq+ brasileira, pop nacional</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>32972</v>
+        <v>6900686</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Primeiro Lugar do Pódio</t>
+          <t>Partilhar</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Primeiro Lugar do Pódio</t>
+          <t>Partilhar</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Kyan, Mu540</t>
+          <t>Rubel, ANAVITÓRIA</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H7" t="n">
-        <v>123515</v>
+        <v>262552</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Mu540</t>
+          <t>ANAVITÓRIA</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>chill baile, trap funk</t>
+          <t>folk brasileiro, nova mpb, pop lgbtq+ brasileira, pop nacional</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>32972</v>
+        <v>6900686</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>UM Quebrada Inteligente</t>
+          <t>COR</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>gucci con tacchini!</t>
+          <t>Amarelo, azul e branco</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Kyan, Mu540</t>
+          <t>ANAVITÓRIA, Rita Lee</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H8" t="n">
-        <v>162365</v>
+        <v>201452</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mu540</t>
+          <t>ANAVITÓRIA</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>chill baile, trap funk</t>
+          <t>folk brasileiro, nova mpb, pop lgbtq+ brasileira, pop nacional</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>32972</v>
+        <v>6900686</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>UM Quebrada Inteligente</t>
+          <t>ANAVITÓRIA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>total 90!</t>
+          <t>Agora Eu Quero Ir</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Kyan, Mu540</t>
+          <t>ANAVITÓRIA</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H9" t="n">
-        <v>185178</v>
+        <v>192714</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Mu540</t>
+          <t>ANAVITÓRIA</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>chill baile, trap funk</t>
+          <t>folk brasileiro, nova mpb, pop lgbtq+ brasileira, pop nacional</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>32972</v>
+        <v>6900686</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>universo de coisas que eu desconheço</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>universo de coisas que eu desconheço</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Kyan, Mu540, DJ Ery</t>
+          <t>ANAVITÓRIA, Lagum</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H10" t="n">
-        <v>124564</v>
+        <v>198000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mu540</t>
+          <t>ANAVITÓRIA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>chill baile, trap funk</t>
+          <t>folk brasileiro, nova mpb, pop lgbtq+ brasileira, pop nacional</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>32972</v>
+        <v>6900686</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>UM Quebrada Inteligente</t>
+          <t>O Tempo É Agora</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>tipo, fila indiana!</t>
+          <t>Porque Eu Te Amo</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Kyan, Mu540</t>
+          <t>ANAVITÓRIA</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H11" t="n">
-        <v>163555</v>
+        <v>216829</v>
       </c>
     </row>
   </sheetData>
@@ -3025,361 +3025,361 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Yunk Vino</t>
+          <t>MC Mirella</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>funk carioca</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537069</v>
+        <v>1824028</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Meu Amigo Diário, Vol. 1 - M.A.D</t>
+          <t>Passando o Rodo (feat. Tainá Costa)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Dialogo</t>
+          <t>Passando o Rodo (feat. Tainá Costa)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Yunk Vino, D Santana, Labbel Rec</t>
+          <t>POCAH, Lara Silva, MC Mirella, Tainá Costa</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="H2" t="n">
-        <v>141639</v>
+        <v>150731</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Yunk Vino</t>
+          <t>MC Mirella</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>funk carioca</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>537069</v>
+        <v>1824028</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EVDC DELUXE</t>
+          <t>Quer mais?</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Beyoncé 2</t>
+          <t>Quer mais?</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ryu, the Runner, Yunk Vino, Stef, Stuani</t>
+          <t>POCAH, MC Mirella</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="H3" t="n">
-        <v>188160</v>
+        <v>175061</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Yunk Vino</t>
+          <t>MC Mirella</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>funk carioca</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>537069</v>
+        <v>1824028</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>360</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Leans, Pt. 2</t>
+          <t>360</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Yunk Vino, Volp</t>
+          <t>LUCK MUZIK, MC Mirella, Rennan da Penha, Mc Juninho FSF</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="H4" t="n">
-        <v>172003</v>
+        <v>146548</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Yunk Vino</t>
+          <t>MC Mirella</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>funk carioca</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>537069</v>
+        <v>1824028</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Dos Prédios</t>
+          <t>Vou Te Iludir, Eu Rebolo Sim</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Bandana 2</t>
+          <t>Vou Te Iludir, Eu Rebolo Sim (feat. MC Mirella &amp; Mc Branquinha)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Veigh, Rocco, Nagalli, Supernova Ent, Yunk Vino, Lp067</t>
+          <t>Dj Dm Audio Production, MC Mirella, Mc Branquinha</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="H5" t="n">
-        <v>132923</v>
+        <v>188214</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Yunk Vino</t>
+          <t>MC Mirella</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>funk carioca</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>537069</v>
+        <v>1824028</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Trap The Fato Deluxe</t>
+          <t>Ice</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>VIVÊNCIAS DO TRAP</t>
+          <t>Ice</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Derek, Jé Santiago, Yunk Vino, Nagalli</t>
+          <t>LUCK MUZIK, MC Mirella</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="H6" t="n">
-        <v>157714</v>
+        <v>132612</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Yunk Vino</t>
+          <t>MC Mirella</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>funk carioca</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>537069</v>
+        <v>1824028</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Mimo Caro</t>
+          <t>Não Perdi Me Livrei</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Mimo Caro</t>
+          <t>Não Perdi Me Livrei</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MC GP, Yunk Vino, Mc Dena</t>
+          <t>Mc Livinho, MC Mirella</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="H7" t="n">
-        <v>249600</v>
+        <v>187272</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Yunk Vino</t>
+          <t>MC Mirella</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>funk carioca</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>537069</v>
+        <v>1824028</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Vlife</t>
+          <t>Provocando</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Vlife</t>
+          <t>Provocando</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Yunk Vino, WIU, Labbel Rec</t>
+          <t>MC Mirella, Mc Gabzin, Kotim, Love Funk</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="H8" t="n">
-        <v>160014</v>
+        <v>166153</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Yunk Vino</t>
+          <t>MC Mirella</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>funk carioca</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>537069</v>
+        <v>1824028</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Favorita</t>
+          <t>Vou tacar</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Favorita</t>
+          <t>Vou tacar</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Volp, Goude, Yunk Vino, Vk Mac</t>
+          <t>MC Mirella</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="H9" t="n">
-        <v>213332</v>
+        <v>130230</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Yunk Vino</t>
+          <t>MC Mirella</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>funk carioca</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>537069</v>
+        <v>1824028</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>Cria de Favela</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Campari</t>
+          <t>Cria de Favela</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Yunk Vino, 808 Luke</t>
+          <t>Dj Gabriel do Borel, MC Mirella</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="H10" t="n">
-        <v>146112</v>
+        <v>201600</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Yunk Vino</t>
+          <t>MC Mirella</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>funk carioca</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>537069</v>
+        <v>1824028</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Meu Amigo Diário, Vol. 1 - M.A.D</t>
+          <t>Te amo piranha</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Jogo Sujo</t>
+          <t>Te amo piranha</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Yunk Vino, Veigh, Nagalli, Trxntin, Labbel Rec</t>
+          <t>MC Mirella, Mc Bella</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="H11" t="n">
-        <v>225000</v>
+        <v>162818</v>
       </c>
     </row>
   </sheetData>
@@ -3446,361 +3446,361 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Leviano</t>
+          <t>Valesca Popozuda</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>rap cearense</t>
+          <t>funk carioca, funk das antigas, funk pop</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>187773</v>
+        <v>785051</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sem Compaixão</t>
+          <t>PROIBIDONA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sem Compaixão</t>
+          <t>PROIBIDONA</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Leviano, MC Cabelinho, Palma</t>
+          <t>Gloria Groove, Anitta, Valesca Popozuda</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="H2" t="n">
-        <v>202451</v>
+        <v>157649</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Leviano</t>
+          <t>Valesca Popozuda</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>rap cearense</t>
+          <t>funk carioca, funk das antigas, funk pop</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>187773</v>
+        <v>785051</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EVDC DELUXE</t>
+          <t>Beijinho no Ombro</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Me Sinto Oruam</t>
+          <t>Beijinho no Ombro</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ryu, the Runner, Leviano, Prod.Chipzz</t>
+          <t>Valesca Popozuda</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H3" t="n">
-        <v>142500</v>
+        <v>164615</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Leviano</t>
+          <t>Valesca Popozuda</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>rap cearense</t>
+          <t>funk carioca, funk das antigas, funk pop</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>187773</v>
+        <v>785051</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Trap The Fato</t>
+          <t>Mó Negoção</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>TRAP THE FATO</t>
+          <t>Mó Negoção</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Derek, Leviano, Brandão85, éoTGL, TTF</t>
+          <t>Valesca Popozuda, MC Kevin o Chris, Mousik</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H4" t="n">
-        <v>216329</v>
+        <v>96810</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Leviano</t>
+          <t>Valesca Popozuda</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>rap cearense</t>
+          <t>funk carioca, funk das antigas, funk pop</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>187773</v>
+        <v>785051</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Matéria</t>
+          <t>Os Melhores Funks da Furacão 2000, Vol. 1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Matéria</t>
+          <t>Agora Tô Solteira</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Leviano, éoTGL, Mindu</t>
+          <t>Furacão 2000, Valesca Popozuda</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H5" t="n">
-        <v>224000</v>
+        <v>222130</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Leviano</t>
+          <t>Valesca Popozuda</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>rap cearense</t>
+          <t>funk carioca, funk das antigas, funk pop</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>187773</v>
+        <v>785051</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Eu Sou a Diva Que Você Quer Copiar</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Eu Sou a Diva Que Você Quer Copiar</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Chefin, Leviano, RUXN</t>
+          <t>Valesca Popozuda</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="H6" t="n">
-        <v>192000</v>
+        <v>146346</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Leviano</t>
+          <t>Valesca Popozuda</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>rap cearense</t>
+          <t>funk carioca, funk das antigas, funk pop</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>187773</v>
+        <v>785051</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Essa Minha Vida Bandida</t>
+          <t>Quero Te Dar</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Casaco De Grife</t>
+          <t>Quero Te Dar</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dfideliz, Leviano, Galdino, RUXN, Deluca</t>
+          <t>Valesca Popozuda</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H7" t="n">
-        <v>124878</v>
+        <v>184007</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Leviano</t>
+          <t>Valesca Popozuda</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>rap cearense</t>
+          <t>funk carioca, funk das antigas, funk pop</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>187773</v>
+        <v>785051</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Vida Cara (Deluxe)</t>
+          <t>Me Ama - Mama</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Floripa</t>
+          <t>Me Ama - Mama</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Orochi, Leviano, Shenlong, SV, Mainstreet, Dallass, Kizzy, Feek</t>
+          <t>Valesca Popozuda, Mr. Catra</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="H8" t="n">
-        <v>340425</v>
+        <v>230478</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Leviano</t>
+          <t>Valesca Popozuda</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>rap cearense</t>
+          <t>funk carioca, funk das antigas, funk pop</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>187773</v>
+        <v>785051</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>OgEMr</t>
+          <t>Me Come e Some</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>DESCONSIDERA</t>
+          <t>Me Come e Some</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Froid, Ecologyk, Leviano, éoTGL</t>
+          <t>Heavy Baile, Valesca Popozuda, LARINHX, Leo Justi</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="H9" t="n">
-        <v>182485</v>
+        <v>156366</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Leviano</t>
+          <t>Valesca Popozuda</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>rap cearense</t>
+          <t>funk carioca, funk das antigas, funk pop</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>187773</v>
+        <v>785051</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Vida Cara</t>
+          <t>Valesca Popozuda (Remaster)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Dia de Baile</t>
+          <t>Bebida Que Pisca</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Orochi, Leviano, MC Maneirinho, Galdino, Filipe Ret, TkN</t>
+          <t>Valesca Popozuda</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H10" t="n">
-        <v>238732</v>
+        <v>166844</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Leviano</t>
+          <t>Valesca Popozuda</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>rap cearense</t>
+          <t>funk carioca, funk das antigas, funk pop</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>187773</v>
+        <v>785051</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Swoosh</t>
+          <t>De Volta Pra Gaiola</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Swoosh</t>
+          <t>Catarro de Porra</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>BIN, jess beats, Leviano, Sub</t>
+          <t>Valesca Popozuda</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="H11" t="n">
-        <v>267130</v>
+        <v>166400</v>
       </c>
     </row>
   </sheetData>
@@ -3867,361 +3867,361 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Brandão85</t>
+          <t>Mc Livinho</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>rap cearense, speed up brasileiro</t>
+          <t>funk carioca, funk paulista, funk rj</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>103627</v>
+        <v>7610650</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Trap The Fato</t>
+          <t>Novidade na Área</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>TRAP THE FATO</t>
+          <t>Novidade na Área</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Derek, Leviano, Brandão85, éoTGL, TTF</t>
+          <t>Mc Livinho, DJ Matt D</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="H2" t="n">
-        <v>216329</v>
+        <v>120014</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Brandão85</t>
+          <t>Mc Livinho</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>rap cearense, speed up brasileiro</t>
+          <t>funk carioca, funk paulista, funk rj</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>103627</v>
+        <v>7610650</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EVDC DELUXE</t>
+          <t>Pocotó</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Modelo</t>
+          <t>Pocotó</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ryu, the Runner, MC Igu, Brandão85, Stuani</t>
+          <t>DJ Matt D, Mc Livinho</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="H3" t="n">
-        <v>168000</v>
+        <v>164312</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Brandão85</t>
+          <t>Mc Livinho</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>rap cearense, speed up brasileiro</t>
+          <t>funk carioca, funk paulista, funk rj</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>103627</v>
+        <v>7610650</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Kylie</t>
+          <t>Hoje Eu Vou Parar Na Gaiola</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Kylie</t>
+          <t>Hoje Eu Vou Parar Na Gaiola</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Leviano, Brandão85, Tz da Coronel, Hash Produções</t>
+          <t>Mc Livinho, Rennan da Penha</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="H4" t="n">
-        <v>147740</v>
+        <v>177093</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Brandão85</t>
+          <t>Mc Livinho</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>rap cearense, speed up brasileiro</t>
+          <t>funk carioca, funk paulista, funk rj</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>103627</v>
+        <v>7610650</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Longe</t>
+          <t>Fazer Falta</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Longe</t>
+          <t>Fazer Falta</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Brandão85, Hash Produções</t>
+          <t>Mc Livinho, Perera DJ</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="H5" t="n">
-        <v>154818</v>
+        <v>210960</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Brandão85</t>
+          <t>Mc Livinho</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>rap cearense, speed up brasileiro</t>
+          <t>funk carioca, funk paulista, funk rj</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>103627</v>
+        <v>7610650</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Nunca Duvide de um Mano</t>
+          <t>Se Prepara 2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Nunca Duvide de um Mano</t>
+          <t>Se Prepara 2</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Brandão85</t>
+          <t>Mc Livinho, Mc Pedrinho, Perera DJ</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="H6" t="n">
-        <v>125009</v>
+        <v>147335</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Brandão85</t>
+          <t>Mc Livinho</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>rap cearense, speed up brasileiro</t>
+          <t>funk carioca, funk paulista, funk rj</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>103627</v>
+        <v>7610650</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Zoo</t>
+          <t>Na Movimentação (feat. Faixa Rosa)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Coruja</t>
+          <t>Na Movimentação (feat. Faixa Rosa)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Brandão85, Hash Produções, Jovem Dex</t>
+          <t>Mc Livinho, Theus Costa, MC Bruna Alves, Faixa Rosa</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="H7" t="n">
-        <v>166019</v>
+        <v>116307</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Brandão85</t>
+          <t>Mc Livinho</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>rap cearense, speed up brasileiro</t>
+          <t>funk carioca, funk paulista, funk rj</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>103627</v>
+        <v>7610650</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Revedeste</t>
+          <t>Minha Vez</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Revedeste</t>
+          <t>Minha Vez</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Jovem Dex, Alee, Brandão85, Leviano, Greezy</t>
+          <t>Ton Carfi, Mc Livinho</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="H8" t="n">
-        <v>65079</v>
+        <v>231637</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Brandão85</t>
+          <t>Mc Livinho</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>rap cearense, speed up brasileiro</t>
+          <t>funk carioca, funk paulista, funk rj</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>103627</v>
+        <v>7610650</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Zoo</t>
+          <t>Ela Vem (Remix)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Jaguar (Uuu) Beck de Mel</t>
+          <t>Ela Vem (Remix)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Brandão85, Hash Produções</t>
+          <t>MC G15, Mc Livinho, DJ ZS SANTOS</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="H9" t="n">
-        <v>157638</v>
+        <v>107119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Brandão85</t>
+          <t>Mc Livinho</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>rap cearense, speed up brasileiro</t>
+          <t>funk carioca, funk paulista, funk rj</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>103627</v>
+        <v>7610650</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ÉTPM?!</t>
+          <t>Vidrado Em Você</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Obama</t>
+          <t>Vidrado Em Você</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Jovem Dex, Brandão85</t>
+          <t>Dj Guuga, Mc Livinho</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="H10" t="n">
-        <v>186677</v>
+        <v>134769</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Brandão85</t>
+          <t>Mc Livinho</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>rap cearense, speed up brasileiro</t>
+          <t>funk carioca, funk paulista, funk rj</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>103627</v>
+        <v>7610650</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Zoo</t>
+          <t>Escorpiana</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Elefante</t>
+          <t>Escorpiana</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Brandão85, Hash Produções</t>
+          <t>Mc Livinho, PEDRO SAMPAIO, DJ Matt D</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="H11" t="n">
-        <v>192054</v>
+        <v>104312</v>
       </c>
     </row>
   </sheetData>
@@ -4288,361 +4288,361 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Senndy</t>
+          <t>Luan Santana</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>detroit trap brasileiro</t>
+          <t>arrocha, sertanejo, sertanejo universitario</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20733</v>
+        <v>7552974</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>É Quem?</t>
+          <t>LUAN CITY 2.0 - FASE 1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Cruzeiro do Ney</t>
+          <t>MEIO TERMO - Ao Vivo</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Senndy, Emitê Único, Ryu, the Runner</t>
+          <t>Luan Santana</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="H2" t="n">
-        <v>175031</v>
+        <v>175468</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Senndy</t>
+          <t>Luan Santana</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>detroit trap brasileiro</t>
+          <t>arrocha, sertanejo, sertanejo universitario</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20733</v>
+        <v>7552974</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Trap The Fato Deluxe</t>
+          <t>LUAN CITY 2.0 - FASE 2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7 NOVINHA PRA 2 MLK - BONUS TRACK</t>
+          <t>AMBIENTE ERRADO - Ao Vivo</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Derek, Emitê Único, Senndy</t>
+          <t>Luan Santana</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H3" t="n">
-        <v>180923</v>
+        <v>144307</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Senndy</t>
+          <t>Luan Santana</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>detroit trap brasileiro</t>
+          <t>arrocha, sertanejo, sertanejo universitario</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20733</v>
+        <v>7552974</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Bando do 7</t>
+          <t>LUAN CITY 2.0 - FASE 2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Zidane</t>
+          <t>MULHER SEGURA - Ao Vivo</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Frost, Senndy, Ryu, the Runner, YG Saull, YOVANCE!, sickobabyxo, SLIME DREAMS, 1-800WRLD</t>
+          <t>Luan Santana</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="H4" t="n">
-        <v>174545</v>
+        <v>190293</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Senndy</t>
+          <t>Luan Santana</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>detroit trap brasileiro</t>
+          <t>arrocha, sertanejo, sertanejo universitario</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20733</v>
+        <v>7552974</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>É Quem?</t>
+          <t>No Mineirão (Ao Vivo)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Ironicamente</t>
+          <t>Namorando Ou Não - Ao Vivo</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Senndy, No Cutty</t>
+          <t>Clayton &amp; Romário, Luan Santana</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="H5" t="n">
-        <v>164269</v>
+        <v>168358</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Senndy</t>
+          <t>Luan Santana</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>detroit trap brasileiro</t>
+          <t>arrocha, sertanejo, sertanejo universitario</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20733</v>
+        <v>7552974</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>É Quem?</t>
+          <t>LUAN CITY DELUXE (Ao Vivo)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Números da Sorte</t>
+          <t>SOLTEIROU - Ao Vivo</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Senndy, Yuri Redicopa, Mc Davi</t>
+          <t>Luan Santana</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="H6" t="n">
-        <v>170647</v>
+        <v>148548</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Senndy</t>
+          <t>Luan Santana</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>detroit trap brasileiro</t>
+          <t>arrocha, sertanejo, sertanejo universitario</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20733</v>
+        <v>7552974</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>É Quem?</t>
+          <t>LUAN CITY (Ao Vivo)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Marcha</t>
+          <t>CORAÇÃO CIGANO - Ao Vivo</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Senndy, Emitê Único, Prod Aurelio</t>
+          <t>Luan Santana, Luísa Sonza</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="H7" t="n">
-        <v>166788</v>
+        <v>209928</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Senndy</t>
+          <t>Luan Santana</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>detroit trap brasileiro</t>
+          <t>arrocha, sertanejo, sertanejo universitario</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>20733</v>
+        <v>7552974</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>EVDC DELUXE</t>
+          <t>Daniel 40 Anos: Celebra João Paulo &amp; Daniel (Ao Vivo)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>É o paco ou berro?</t>
+          <t>Estou Apaixonado - Ao Vivo</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ryu, the Runner, Senndy, Emitê Único, Elipe</t>
+          <t>Daniel, Jorge &amp; Mateus, Bruno &amp; Marrone, Michel Teló, Luan Santana, Henrique &amp; Juliano, Maiara &amp; Maraisa, Chitãozinho &amp; Xororó, Fernando &amp; Sorocaba, Edson &amp; Hudson, César Menotti &amp; Fabiano, Guilherme &amp; Santiago, Cezar &amp; Paulinho, Rick &amp; Renner, Gian &amp; Giovani, João Neto &amp; Frederico, Paraná, Marcos &amp; Belutti, João Bosco &amp; Vinícius, Rionegro &amp; Solimões, Althaír &amp; Alexandre</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="H8" t="n">
-        <v>184615</v>
+        <v>283733</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Senndy</t>
+          <t>Luan Santana</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>detroit trap brasileiro</t>
+          <t>arrocha, sertanejo, sertanejo universitario</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>20733</v>
+        <v>7552974</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Ritmo de Copa</t>
+          <t>LUAN CITY (Ao Vivo)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Ritmo de Copa</t>
+          <t>ERRO PLANEJADO - Ao Vivo</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Senndy, Ryu, the Runner, Emitê Único, Frost, Salve Crazy</t>
+          <t>Luan Santana, Henrique &amp; Juliano</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="H9" t="n">
-        <v>158400</v>
+        <v>154868</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Senndy</t>
+          <t>Luan Santana</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>detroit trap brasileiro</t>
+          <t>arrocha, sertanejo, sertanejo universitario</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>20733</v>
+        <v>7552974</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Quem Ta Fazendo a Onda?</t>
+          <t>LUAN CITY 2.0 - FASE 1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Quem Ta Fazendo a Onda?</t>
+          <t>DEUS É MUITO BOM - Ao Vivo</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ryu, the Runner, Senndy, OG Bahia, Salve Crazy</t>
+          <t>Luan Santana</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H10" t="n">
-        <v>129160</v>
+        <v>174317</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Senndy</t>
+          <t>Luan Santana</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>detroit trap brasileiro</t>
+          <t>arrocha, sertanejo, sertanejo universitario</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>20733</v>
+        <v>7552974</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>É Quem?</t>
+          <t>LUAN CITY (Ao Vivo)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>O Melhor</t>
+          <t>ABALO EMOCIONAL - Ao Vivo</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Senndy, REAL PS</t>
+          <t>Luan Santana</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="H11" t="n">
-        <v>132923</v>
+        <v>153225</v>
       </c>
     </row>
   </sheetData>
@@ -4709,361 +4709,361 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Aka Rasta</t>
+          <t>Maiara &amp; Maraisa</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>rap paranaense</t>
+          <t>sertanejo, sertanejo pop, sertanejo universitario</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>316586</v>
+        <v>13485070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ZIMA</t>
+          <t>Ao Vivo Em Portugal, Vol. 1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Romântico 2</t>
+          <t>Narcisista - Ao Vivo</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Aka Rasta, Veigh</t>
+          <t>Maiara &amp; Maraisa</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H2" t="n">
-        <v>150932</v>
+        <v>211200</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Aka Rasta</t>
+          <t>Maiara &amp; Maraisa</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>rap paranaense</t>
+          <t>sertanejo, sertanejo pop, sertanejo universitario</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>316586</v>
+        <v>13485070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ZIMA</t>
+          <t>Oficializar (Ao Vivo)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>E Se Eu Falasse o Que Sinto?</t>
+          <t>Oficializar - Ao Vivo</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Aka Rasta, CJota</t>
+          <t>Gusttavo Lima, Maiara &amp; Maraisa</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="H3" t="n">
-        <v>216000</v>
+        <v>167514</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Aka Rasta</t>
+          <t>Maiara &amp; Maraisa</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>rap paranaense</t>
+          <t>sertanejo, sertanejo pop, sertanejo universitario</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>316586</v>
+        <v>13485070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>O Menino do Cabelo Rosa</t>
+          <t>Identidade (Ao Vivo)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Território</t>
+          <t>A Culpa É Nossa - Ao Vivo</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CJota, Aka Rasta, Supernova Ent</t>
+          <t>Maiara &amp; Maraisa</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="H4" t="n">
-        <v>183938</v>
+        <v>165000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Aka Rasta</t>
+          <t>Maiara &amp; Maraisa</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>rap paranaense</t>
+          <t>sertanejo, sertanejo pop, sertanejo universitario</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>316586</v>
+        <v>13485070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SHH</t>
+          <t>Festa das Patroas 35%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CALA-BOCA, TRABALHO</t>
+          <t>Esqueça-Me Se For Capaz</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Rudies Flacko, Aka Rasta</t>
+          <t>Marília Mendonça, Maiara &amp; Maraisa</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="H5" t="n">
-        <v>107055</v>
+        <v>169058</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Aka Rasta</t>
+          <t>Maiara &amp; Maraisa</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>rap paranaense</t>
+          <t>sertanejo, sertanejo pop, sertanejo universitario</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>316586</v>
+        <v>13485070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>O Menino do Cabelo Rosa</t>
+          <t>Ao Vivo Em Portugal, Vol. 1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>E Se Eu Falasse o Que Sinto 2</t>
+          <t>Surtos - Ao Vivo</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CJota, Aka Rasta</t>
+          <t>Maiara &amp; Maraisa</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="H6" t="n">
-        <v>199388</v>
+        <v>173992</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Aka Rasta</t>
+          <t>Maiara &amp; Maraisa</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>rap paranaense</t>
+          <t>sertanejo, sertanejo pop, sertanejo universitario</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>316586</v>
+        <v>13485070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ZIMA</t>
+          <t>Daniel 40 Anos: Celebra João Paulo &amp; Daniel (Ao Vivo)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Reggae</t>
+          <t>Estou Apaixonado - Ao Vivo</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Aka Rasta, Sabrina Lopes</t>
+          <t>Daniel, Jorge &amp; Mateus, Bruno &amp; Marrone, Michel Teló, Luan Santana, Henrique &amp; Juliano, Maiara &amp; Maraisa, Chitãozinho &amp; Xororó, Fernando &amp; Sorocaba, Edson &amp; Hudson, César Menotti &amp; Fabiano, Guilherme &amp; Santiago, Cezar &amp; Paulinho, Rick &amp; Renner, Gian &amp; Giovani, João Neto &amp; Frederico, Paraná, Marcos &amp; Belutti, João Bosco &amp; Vinícius, Rionegro &amp; Solimões, Althaír &amp; Alexandre</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="H7" t="n">
-        <v>180923</v>
+        <v>283733</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Aka Rasta</t>
+          <t>Maiara &amp; Maraisa</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>rap paranaense</t>
+          <t>sertanejo, sertanejo pop, sertanejo universitario</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>316586</v>
+        <v>13485070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ZIMA</t>
+          <t>Festa das Patroas 35%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Ela Canta Melodias</t>
+          <t>Presepada</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Aka Rasta</t>
+          <t>Marília Mendonça, Maiara &amp; Maraisa</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="H8" t="n">
-        <v>85294</v>
+        <v>196209</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Aka Rasta</t>
+          <t>Maiara &amp; Maraisa</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>rap paranaense</t>
+          <t>sertanejo, sertanejo pop, sertanejo universitario</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>316586</v>
+        <v>13485070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ECLÉTICO - LADO B</t>
+          <t>Festa das Patroas 35%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Com Pressão</t>
+          <t>Não Sei o Que Lá</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>MC PH, Veigh, Aka Rasta, Ecologyk</t>
+          <t>Marília Mendonça, Maiara &amp; Maraisa</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="H9" t="n">
-        <v>188160</v>
+        <v>169586</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Aka Rasta</t>
+          <t>Maiara &amp; Maraisa</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>rap paranaense</t>
+          <t>sertanejo, sertanejo pop, sertanejo universitario</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>316586</v>
+        <v>13485070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ZIMA</t>
+          <t>João Neto &amp; Frederico 25 Anos Ao Vivo (Maiara &amp; Maraisa)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Vou Falar o Que?</t>
+          <t>Enganada Diferente - Ao Vivo</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Aka Rasta, CJota</t>
+          <t>João Neto &amp; Frederico, Maiara &amp; Maraisa</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="H10" t="n">
-        <v>183185</v>
+        <v>152999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Aka Rasta</t>
+          <t>Maiara &amp; Maraisa</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>rap paranaense</t>
+          <t>sertanejo, sertanejo pop, sertanejo universitario</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>316586</v>
+        <v>13485070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Apolo Nästy</t>
+          <t>Lauana Prado</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Como que vou ficar broke</t>
+          <t>Cobaia</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rudies Flacko, Aka Rasta, N.A.N.A.</t>
+          <t>Lauana Prado, Maiara &amp; Maraisa</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="H11" t="n">
-        <v>224615</v>
+        <v>219442</v>
       </c>
     </row>
   </sheetData>
@@ -5115,19 +5115,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>N.A.N.A.</t>
+          <t>MC Mirella</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>detroit trap brasileiro</t>
+          <t>funk carioca</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>36355</v>
+        <v>1824028</v>
       </c>
       <c r="D2" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -5138,19 +5138,19 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>The Boy</t>
+          <t>Tati Zaqui</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>trap pesado</t>
+          <t>funk carioca</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>134202</v>
+        <v>1184680</v>
       </c>
       <c r="D3" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -5161,19 +5161,19 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Brandão85</t>
+          <t>Valesca Popozuda</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>rap cearense, speed up brasileiro</t>
+          <t>funk carioca, funk das antigas, funk pop</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>103627</v>
+        <v>785051</v>
       </c>
       <c r="D4" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -5184,19 +5184,19 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>tchelo rodrigues</t>
+          <t>Lexa</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>drill brasileiro</t>
+          <t>funk carioca, funk pop, funk rj, pop nacional</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>39566</v>
+        <v>2744400</v>
       </c>
       <c r="D5" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -5207,19 +5207,19 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>retroboy</t>
+          <t>Nego do Borel</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>funk carioca, funk das antigas, funk ostentacao, funk pop, sertanejo universitario</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3535</v>
+        <v>2595378</v>
       </c>
       <c r="D6" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -5230,19 +5230,19 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Rudies Flacko</t>
+          <t>Claudia Leitte</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>plug brasileiro, speed plug brasileiro</t>
+          <t>axe, pagode, pop nacional, sertanejo, sertanejo universitario</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>46391</v>
+        <v>1159356</v>
       </c>
       <c r="D7" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -5253,19 +5253,19 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Celo1st</t>
+          <t>MC Kevinho</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>funk carioca, funk ostentacao, funk pop, sertanejo universitario</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6786</v>
+        <v>8163585</v>
       </c>
       <c r="D8" t="n">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -5276,19 +5276,19 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Neckklace</t>
+          <t>Simone &amp; Simaria</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>pop nacional, sertanejo, sertanejo pop, sertanejo universitario</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5795</v>
+        <v>5411514</v>
       </c>
       <c r="D9" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -5299,19 +5299,19 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Recayd Mob</t>
+          <t>Naiara Azevedo</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>funk carioca, sertanejo, sertanejo pop, sertanejo universitario</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>624561</v>
+        <v>8288717</v>
       </c>
       <c r="D10" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -5322,19 +5322,19 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Senndy</t>
+          <t>Pabllo Vittar</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>detroit trap brasileiro</t>
+          <t>dance pop, funk carioca, funk pop, pop lgbtq+ brasileira, pop nacional</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>20733</v>
+        <v>4315924</v>
       </c>
       <c r="D11" t="n">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -5345,15 +5345,19 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>TTF</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
+          <t>IZA</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>afrofuturismo brasileiro, pop nacional, r&amp;b brasileiro</t>
+        </is>
+      </c>
       <c r="C12" t="n">
-        <v>6032</v>
+        <v>4624694</v>
       </c>
       <c r="D12" t="n">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -5364,19 +5368,19 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Aka Rasta</t>
+          <t>PEDRO SAMPAIO</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>rap paranaense</t>
+          <t>funk carioca, funk rj</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>316586</v>
+        <v>2298367</v>
       </c>
       <c r="D13" t="n">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -5387,19 +5391,19 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MC Igu</t>
+          <t>Gloria Groove</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>brazilian hip hop, plug brasileiro</t>
+          <t>funk carioca, pop lgbtq+ brasileira</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>444532</v>
+        <v>2978285</v>
       </c>
       <c r="D14" t="n">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -5410,19 +5414,19 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Jé Santiago</t>
+          <t>ANAVITÓRIA</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>r&amp;b brasileiro, trap brasileiro</t>
+          <t>folk brasileiro, nova mpb, pop lgbtq+ brasileira, pop nacional</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>498514</v>
+        <v>6900686</v>
       </c>
       <c r="D15" t="n">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -5433,19 +5437,19 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Labbel Rec</t>
+          <t>Mc Livinho</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>funk carioca, funk paulista, funk rj</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5101</v>
+        <v>7610650</v>
       </c>
       <c r="D16" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -5456,19 +5460,19 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Danzo</t>
+          <t>DENNIS</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>trap pesado</t>
+          <t>funk carioca, funk das antigas, sertanejo universitario</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>105309</v>
+        <v>2169248</v>
       </c>
       <c r="D17" t="n">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -5479,19 +5483,19 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Leviano</t>
+          <t>LUDMILLA</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>rap cearense</t>
+          <t>funk carioca, funk pop, funk rj, pagode baiano, pop nacional</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>187773</v>
+        <v>6805740</v>
       </c>
       <c r="D18" t="n">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -5502,19 +5506,19 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Mu540</t>
+          <t>Maiara &amp; Maraisa</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>chill baile, trap funk</t>
+          <t>sertanejo, sertanejo pop, sertanejo universitario</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>32972</v>
+        <v>13485070</v>
       </c>
       <c r="D19" t="n">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -5525,19 +5529,19 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Ryu, the Runner</t>
+          <t>Luan Santana</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>detroit trap brasileiro, trap brasileiro</t>
+          <t>arrocha, sertanejo, sertanejo universitario</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>235492</v>
+        <v>7552974</v>
       </c>
       <c r="D20" t="n">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -5548,19 +5552,19 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Yunk Vino</t>
+          <t>Luísa Sonza</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>funk carioca, pop nacional</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>537069</v>
+        <v>4900137</v>
       </c>
       <c r="D21" t="n">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -5632,361 +5636,361 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Jé Santiago</t>
+          <t>Tati Zaqui</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>r&amp;b brasileiro, trap brasileiro</t>
+          <t>funk carioca</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>498514</v>
+        <v>1184680</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Trap The Fato Deluxe</t>
+          <t>Surtada (Remix Brega Funk)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>VIVÊNCIAS DO TRAP</t>
+          <t>Surtada - Remix Brega Funk</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Derek, Jé Santiago, Yunk Vino, Nagalli</t>
+          <t>Dadá Boladão, Tati Zaqui, OIK</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H2" t="n">
-        <v>157714</v>
+        <v>152783</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Jé Santiago</t>
+          <t>Tati Zaqui</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>r&amp;b brasileiro, trap brasileiro</t>
+          <t>funk carioca</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>498514</v>
+        <v>1184680</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>POC POC</t>
+          <t>Potência</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>POC POC</t>
+          <t>Potência</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Recayd Mob, Dfideliz, Derek, Jé Santiago, MC Igu, N.A.N.A., BONE, The Boy</t>
+          <t>Tati Zaqui, US Agroboy, Lukkas</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>55</v>
       </c>
       <c r="H3" t="n">
-        <v>223732</v>
+        <v>171692</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Jé Santiago</t>
+          <t>Tati Zaqui</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>r&amp;b brasileiro, trap brasileiro</t>
+          <t>funk carioca</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>498514</v>
+        <v>1184680</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Calzone Tapes, Vol. 2</t>
+          <t>Água na Boca</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Flack Jack</t>
+          <t>Água na Boca</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Recayd Mob, BONE, Derek, Dfideliz, MC Igu, Jé Santiago</t>
+          <t>Tati Zaqui</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H4" t="n">
-        <v>241879</v>
+        <v>185341</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Jé Santiago</t>
+          <t>Tati Zaqui</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>r&amp;b brasileiro, trap brasileiro</t>
+          <t>funk carioca</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>498514</v>
+        <v>1184680</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The Magic Show: Snippet</t>
+          <t>Baila Mais 2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pandora (2Plan)</t>
+          <t>Baila Mais 2</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Nagalli, Jé Santiago, Yunk Vino, Veigh</t>
+          <t>Orgânico, Tati Zaqui, Pelé MilFlows, Léo Casa 1, Mikezin, Olívia, SóCIRO</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H5" t="n">
-        <v>225610</v>
+        <v>362769</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Jé Santiago</t>
+          <t>Tati Zaqui</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>r&amp;b brasileiro, trap brasileiro</t>
+          <t>funk carioca</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>498514</v>
+        <v>1184680</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Nintendo Switch</t>
+          <t>Funk de Pelúcia</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Nintendo Switch</t>
+          <t>Funk de Pelúcia</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Jé Santiago, Celo1st</t>
+          <t>Tati Zaqui, Bia Marques, 48k</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H6" t="n">
-        <v>259672</v>
+        <v>197331</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Jé Santiago</t>
+          <t>Tati Zaqui</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>r&amp;b brasileiro, trap brasileiro</t>
+          <t>funk carioca</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>498514</v>
+        <v>1184680</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Re: Ciclo, Lado A</t>
+          <t>Surra Bem Dada</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Netflix</t>
+          <t>Surra Bem Dada</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Jé Santiago</t>
+          <t>Tati Zaqui</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H7" t="n">
-        <v>132713</v>
+        <v>164035</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Jé Santiago</t>
+          <t>Tati Zaqui</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>r&amp;b brasileiro, trap brasileiro</t>
+          <t>funk carioca</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>498514</v>
+        <v>1184680</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Nicole Bahls</t>
+          <t>Dream Girl (Brazil Remix)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Nicole Bahls</t>
+          <t>Dream Girl - Brazil Remix</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Recayd Mob, Derek, MC Igu, Dfideliz, Jé Santiago, N.A.N.A., BONE, The Boy</t>
+          <t>Ir Sais, Tati Zaqui</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H8" t="n">
-        <v>241567</v>
+        <v>195138</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Jé Santiago</t>
+          <t>Tati Zaqui</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>r&amp;b brasileiro, trap brasileiro</t>
+          <t>funk carioca</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>498514</v>
+        <v>1184680</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>O Bagulho É Trap</t>
+          <t>Escandalosa</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Diñero</t>
+          <t>Escandalosa</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Jé Santiago</t>
+          <t>Tati Zaqui, Pk</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H9" t="n">
-        <v>192537</v>
+        <v>147242</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Jé Santiago</t>
+          <t>Tati Zaqui</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>r&amp;b brasileiro, trap brasileiro</t>
+          <t>funk carioca</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>498514</v>
+        <v>1184680</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Hora do Rush</t>
+          <t>Rebelde e Abusada</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Snakes</t>
+          <t>Rebelde e Abusada</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Jé Santiago, MC Igu</t>
+          <t>Tati Zaqui</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H10" t="n">
-        <v>184860</v>
+        <v>183673</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Jé Santiago</t>
+          <t>Tati Zaqui</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>r&amp;b brasileiro, trap brasileiro</t>
+          <t>funk carioca</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>498514</v>
+        <v>1184680</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Drip de Negão</t>
+          <t>Carne de Pescoço</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Drip de Negão</t>
+          <t>Catuaba - Remix</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Young Mascka, Jé Santiago, Dfideliz, Jovem Sam</t>
+          <t>Heavy Baile, Tati Zaqui, Bonde das Maravilhas, MC Tchelinho, Leo Justi</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H11" t="n">
-        <v>197254</v>
+        <v>182794</v>
       </c>
     </row>
   </sheetData>
@@ -6053,361 +6057,361 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>N.A.N.A.</t>
+          <t>Claudia Leitte</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>detroit trap brasileiro</t>
+          <t>axe, pagode, pop nacional, sertanejo, sertanejo universitario</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>36355</v>
+        <v>1159356</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>POC POC</t>
+          <t>Babado Novo / O Diário de Claudinha</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>POC POC</t>
+          <t>Bola De Sabão</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Recayd Mob, Dfideliz, Derek, Jé Santiago, MC Igu, N.A.N.A., BONE, The Boy</t>
+          <t>Babado Novo, Claudia Leitte</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H2" t="n">
-        <v>223732</v>
+        <v>239466</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>N.A.N.A.</t>
+          <t>Claudia Leitte</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>detroit trap brasileiro</t>
+          <t>axe, pagode, pop nacional, sertanejo, sertanejo universitario</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>36355</v>
+        <v>1159356</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Apolo Nästy</t>
+          <t>agradece</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Como que vou ficar broke</t>
+          <t>agradece</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rudies Flacko, Aka Rasta, N.A.N.A.</t>
+          <t>Claudia Leitte, Natiruts</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H3" t="n">
-        <v>224615</v>
+        <v>169592</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>N.A.N.A.</t>
+          <t>Claudia Leitte</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>detroit trap brasileiro</t>
+          <t>axe, pagode, pop nacional, sertanejo, sertanejo universitario</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>36355</v>
+        <v>1159356</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Nicole Bahls</t>
+          <t>Uau! Babado Novo Em Salvador</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Nicole Bahls</t>
+          <t>Amor Perfeito - Ao Vivo</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Recayd Mob, Derek, MC Igu, Dfideliz, Jé Santiago, N.A.N.A., BONE, The Boy</t>
+          <t>Babado Novo, Claudia Leitte</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H4" t="n">
-        <v>241567</v>
+        <v>288960</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>N.A.N.A.</t>
+          <t>Claudia Leitte</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>detroit trap brasileiro</t>
+          <t>axe, pagode, pop nacional, sertanejo, sertanejo universitario</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>36355</v>
+        <v>1159356</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Trap The Fato</t>
+          <t>REALVERSO: Lado A</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MAYBACH</t>
+          <t>POTINHO</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Derek, tchelo rodrigues, N.A.N.A., retroboy, TTF</t>
+          <t>Claudia Leitte, Saulo</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H5" t="n">
-        <v>200295</v>
+        <v>177274</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>N.A.N.A.</t>
+          <t>Claudia Leitte</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>detroit trap brasileiro</t>
+          <t>axe, pagode, pop nacional, sertanejo, sertanejo universitario</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>36355</v>
+        <v>1159356</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PINGA</t>
+          <t>Ao Vivo Em Copacabana</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>PINGA</t>
+          <t>Pensando Em Você - Live</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rudies Flacko, Aka Rasta, N.A.N.A.</t>
+          <t>Claudia Leitte</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H6" t="n">
-        <v>178790</v>
+        <v>319893</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>N.A.N.A.</t>
+          <t>Claudia Leitte</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>detroit trap brasileiro</t>
+          <t>axe, pagode, pop nacional, sertanejo, sertanejo universitario</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>36355</v>
+        <v>1159356</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SHH</t>
+          <t>Uau! Babado Novo Em Salvador</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>EU GANHEI COM MEU TIME</t>
+          <t>Safado, Cachorro, Sem-Vergonha - Ao Vivo</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rudies Flacko, N.A.N.A., mavyrmldy</t>
+          <t>Babado Novo, Claudia Leitte</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7" t="n">
-        <v>241429</v>
+        <v>225626</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>N.A.N.A.</t>
+          <t>Claudia Leitte</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>detroit trap brasileiro</t>
+          <t>axe, pagode, pop nacional, sertanejo, sertanejo universitario</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>36355</v>
+        <v>1159356</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Se Ela Quer P**</t>
+          <t>Uau! Babado Novo Em Salvador</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Se Ela Quer P**</t>
+          <t>Ê Saudade - Ao Vivo</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Recayd Mob, N.A.N.A., Derek, Dfideliz, Jé Santiago, BONE, The Boy, MC Igu</t>
+          <t>Babado Novo, Jammil E Uma Noites, Claudia Leitte</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H8" t="n">
-        <v>122000</v>
+        <v>206160</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>N.A.N.A.</t>
+          <t>Claudia Leitte</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>detroit trap brasileiro</t>
+          <t>axe, pagode, pop nacional, sertanejo, sertanejo universitario</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>36355</v>
+        <v>1159356</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ZIMA</t>
+          <t>Saudade de Você</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Eu Não Sou Seu Ex</t>
+          <t>Saudade de Você</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Aka Rasta, N.A.N.A.</t>
+          <t>Claudia Leitte, Filhos De Jorge</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H9" t="n">
-        <v>237525</v>
+        <v>177833</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>N.A.N.A.</t>
+          <t>Claudia Leitte</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>detroit trap brasileiro</t>
+          <t>axe, pagode, pop nacional, sertanejo, sertanejo universitario</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>36355</v>
+        <v>1159356</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Balança a Raba (feat. MC Igu)</t>
+          <t>Claudia Leitte - Ep</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Balança a Raba (feat. MC Igu)</t>
+          <t>Largadinho</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>N.A.N.A., Igor Hicks, The Boy, MC Igu</t>
+          <t>Claudia Leitte</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H10" t="n">
-        <v>161167</v>
+        <v>214916</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>N.A.N.A.</t>
+          <t>Claudia Leitte</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>detroit trap brasileiro</t>
+          <t>axe, pagode, pop nacional, sertanejo, sertanejo universitario</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>36355</v>
+        <v>1159356</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Qual é Seu Problema</t>
+          <t>Especialistas</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Qual é Seu Problema</t>
+          <t>Especialistas</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>N.A.N.A., Aka Rasta, Rudies Flacko, CJota</t>
+          <t>Claudia Leitte, NATTAN</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H11" t="n">
-        <v>278260</v>
+        <v>169700</v>
       </c>
     </row>
   </sheetData>
@@ -6474,361 +6478,361 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Danzo</t>
+          <t>Naiara Azevedo</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>trap pesado</t>
+          <t>funk carioca, sertanejo, sertanejo pop, sertanejo universitario</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>105309</v>
+        <v>8288717</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>O Cenário Certo para o Teatro Perfeito</t>
+          <t>Só Me Usou</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Desfile na Favela</t>
+          <t>Só Me Usou</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Danzo, Veigh, Bvga Beatz, Toledo</t>
+          <t>Naiara Azevedo, Kadu Martins</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>160000</v>
+        <v>188565</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Danzo</t>
+          <t>Naiara Azevedo</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>trap pesado</t>
+          <t>funk carioca, sertanejo, sertanejo pop, sertanejo universitario</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>105309</v>
+        <v>8288717</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>O Cenário Certo para o Teatro Perfeito</t>
+          <t>Plural (Ao Vivo)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Famigerado</t>
+          <t>Palhaça - Ao Vivo</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Danzo, Greezy</t>
+          <t>Naiara Azevedo, Ana Castela</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H3" t="n">
-        <v>138305</v>
+        <v>170191</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Danzo</t>
+          <t>Naiara Azevedo</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>trap pesado</t>
+          <t>funk carioca, sertanejo, sertanejo pop, sertanejo universitario</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>105309</v>
+        <v>8288717</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Trap de Cria 2</t>
+          <t>50 Reais</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Trap de Cria 2</t>
+          <t>50 Reais</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Kyan, Danzo, Veigh, Nagalli, Caio Passos</t>
+          <t>Naiara Azevedo, Maiara &amp; Maraisa</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H4" t="n">
-        <v>157566</v>
+        <v>207104</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Danzo</t>
+          <t>Naiara Azevedo</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>trap pesado</t>
+          <t>funk carioca, sertanejo, sertanejo pop, sertanejo universitario</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>105309</v>
+        <v>8288717</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>O Cenário Certo para o Teatro Perfeito</t>
+          <t>Coisas Banais (Ao Vivo)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Jogo</t>
+          <t>Coisas Banais - Ao Vivo</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Danzo, Mc Luanna, Greezy</t>
+          <t>Avine Vinny, Naiara Azevedo</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H5" t="n">
-        <v>168205</v>
+        <v>238122</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Danzo</t>
+          <t>Naiara Azevedo</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>trap pesado</t>
+          <t>funk carioca, sertanejo, sertanejo pop, sertanejo universitario</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>105309</v>
+        <v>8288717</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>O Cenário Certo para o Teatro Perfeito</t>
+          <t>50 por Cento</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Confortável</t>
+          <t>50 por Cento</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Danzo, Niink, Ghard, Bvga Beatz, Toledo</t>
+          <t>Naiara Azevedo, Marília Mendonça</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H6" t="n">
-        <v>185806</v>
+        <v>176549</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Danzo</t>
+          <t>Naiara Azevedo</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>trap pesado</t>
+          <t>funk carioca, sertanejo, sertanejo pop, sertanejo universitario</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>105309</v>
+        <v>8288717</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>O Cenário Certo para o Teatro Perfeito</t>
+          <t>Instinto Animal (Na Linha Do Tempo) [Ao Vivo]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Prioridades</t>
+          <t>Instinto Animal (Na Linha Do Tempo) - Ao Vivo</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Danzo, CJota, Toledo, Honaiser</t>
+          <t>Zé Henrique &amp; Gabriel, Naiara Azevedo</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H7" t="n">
-        <v>158571</v>
+        <v>220756</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Danzo</t>
+          <t>Naiara Azevedo</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>trap pesado</t>
+          <t>funk carioca, sertanejo, sertanejo pop, sertanejo universitario</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>105309</v>
+        <v>8288717</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Tiro Foto, Mas Não Posto</t>
+          <t>Pegada Que Desgrama</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Tiro Foto, Mas Não Posto</t>
+          <t>Pegada Que Desgrama</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Danzo, Greezy, Labbel Rec</t>
+          <t>Naiara Azevedo</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H8" t="n">
-        <v>144761</v>
+        <v>182368</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Danzo</t>
+          <t>Naiara Azevedo</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>trap pesado</t>
+          <t>funk carioca, sertanejo, sertanejo pop, sertanejo universitario</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>105309</v>
+        <v>8288717</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>O Cenário Certo para o Teatro Perfeito</t>
+          <t>Contraste (Ao Vivo)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Propagar</t>
+          <t>Avisa Que Eu Cheguei - Ao Vivo</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Danzo, Bvga Beatz, Yunk Vino, Honaiser, Toledo, MATHINVOKER</t>
+          <t>Naiara Azevedo, Ivete Sangalo</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H9" t="n">
-        <v>147692</v>
+        <v>175760</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Danzo</t>
+          <t>Naiara Azevedo</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>trap pesado</t>
+          <t>funk carioca, sertanejo, sertanejo pop, sertanejo universitario</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>105309</v>
+        <v>8288717</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>O Cenário Certo para o Teatro Perfeito</t>
+          <t>Plural (Ao Vivo)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>24 por 48</t>
+          <t>Tenta Me Esquecer - Ao Vivo</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Danzo, Menor MC, Dazz</t>
+          <t>Naiara Azevedo</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H10" t="n">
-        <v>192000</v>
+        <v>135366</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Danzo</t>
+          <t>Naiara Azevedo</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>trap pesado</t>
+          <t>funk carioca, sertanejo, sertanejo pop, sertanejo universitario</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>105309</v>
+        <v>8288717</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>O Cenário Certo para o Teatro Perfeito</t>
+          <t>Plural (Ao Vivo)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Lado Bem, Lado Mal</t>
+          <t>Namorar Não Vou - Ao Vivo</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Danzo, Bvga Beatz, Toledo, Honaiser</t>
+          <t>Naiara Azevedo</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H11" t="n">
-        <v>150000</v>
+        <v>175774</v>
       </c>
     </row>
   </sheetData>
@@ -6895,361 +6899,361 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>retroboy</t>
+          <t>Pabllo Vittar</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>dance pop, funk carioca, funk pop, pop lgbtq+ brasileira, pop nacional</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3535</v>
+        <v>4315924</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Trap The Fato</t>
+          <t>DOCE 22</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>BARRAS &amp; BARRAS</t>
+          <t>MODO TURBO</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Derek, tchelo rodrigues, retroboy, TTF</t>
+          <t>Luísa Sonza, Pabllo Vittar, Anitta</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H2" t="n">
-        <v>218603</v>
+        <v>150259</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>retroboy</t>
+          <t>Pabllo Vittar</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>dance pop, funk carioca, funk pop, pop lgbtq+ brasileira, pop nacional</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3535</v>
+        <v>4315924</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Trap The Fato</t>
+          <t>SEREIA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ESSA VADIA ME ESTIGA</t>
+          <t>SEREIA</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Derek, retroboy, TTF</t>
+          <t>Lia Clark, Pabllo Vittar</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H3" t="n">
-        <v>192240</v>
+        <v>155454</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>retroboy</t>
+          <t>Pabllo Vittar</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>dance pop, funk carioca, funk pop, pop lgbtq+ brasileira, pop nacional</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3535</v>
+        <v>4315924</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Trap The Fato</t>
+          <t>Noitada</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>TRAP THE FATO NÓIS FEZ EM 5</t>
+          <t>AMEIANOITE</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Derek, tchelo rodrigues, Mattyahu, retroboy, TTF</t>
+          <t>Pabllo Vittar, Gloria Groove</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H4" t="n">
-        <v>260656</v>
+        <v>166013</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>retroboy</t>
+          <t>Pabllo Vittar</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>dance pop, funk carioca, funk pop, pop lgbtq+ brasileira, pop nacional</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3535</v>
+        <v>4315924</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>POKAZIDEIA</t>
+          <t>Major Lazer Essentials</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>POKAZIDEIA</t>
+          <t>Sua Cara (feat. Anitta &amp; Pabllo Vittar)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>tchelo rodrigues, retroboy</t>
+          <t>Major Lazer, Anitta, Pabllo Vittar</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H5" t="n">
-        <v>136334</v>
+        <v>167310</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>retroboy</t>
+          <t>Pabllo Vittar</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>dance pop, funk carioca, funk pop, pop lgbtq+ brasileira, pop nacional</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3535</v>
+        <v>4315924</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>INJURIADO</t>
+          <t>Vai Passar Mal</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>INJURIADO</t>
+          <t>K.O.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>tchelo rodrigues, retroboy</t>
+          <t>Pabllo Vittar</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H6" t="n">
-        <v>150395</v>
+        <v>155654</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>retroboy</t>
+          <t>Pabllo Vittar</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>dance pop, funk carioca, funk pop, pop lgbtq+ brasileira, pop nacional</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3535</v>
+        <v>4315924</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>KICKFLIP</t>
+          <t>AFTER</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>KICKFLIP</t>
+          <t>Penetra - Pedro Sampaio Remix</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>tchelo rodrigues, retroboy</t>
+          <t>Pabllo Vittar, O Kannalha, PEDRO SAMPAIO</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="H7" t="n">
-        <v>157978</v>
+        <v>150824</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>retroboy</t>
+          <t>Pabllo Vittar</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>dance pop, funk carioca, funk pop, pop lgbtq+ brasileira, pop nacional</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3535</v>
+        <v>4315924</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Trap The Fato</t>
+          <t>Equalize</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>DE JET NO PORSHE</t>
+          <t>Equalize</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Derek, tchelo rodrigues, retroboy, TTF</t>
+          <t>Pabllo Vittar</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H8" t="n">
-        <v>197818</v>
+        <v>218709</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>retroboy</t>
+          <t>Pabllo Vittar</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>dance pop, funk carioca, funk pop, pop lgbtq+ brasileira, pop nacional</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3535</v>
+        <v>4315924</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PALPITE</t>
+          <t>AFTER</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>PALPITE</t>
+          <t>Derretida - Brunoso Remix ft Irmãs de Pau</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>tchelo rodrigues, retroboy</t>
+          <t>Pabllo Vittar, Irmãs de Pau, Brunoso</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="H9" t="n">
-        <v>138011</v>
+        <v>173265</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>retroboy</t>
+          <t>Pabllo Vittar</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>dance pop, funk carioca, funk pop, pop lgbtq+ brasileira, pop nacional</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3535</v>
+        <v>4315924</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Trap The Fato</t>
+          <t>Noitada</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>PJL</t>
+          <t>Cadeado</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Derek, Leviano, retroboy, TTF</t>
+          <t>Pabllo Vittar</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="H10" t="n">
-        <v>183116</v>
+        <v>168266</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>retroboy</t>
+          <t>Pabllo Vittar</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>dance pop, funk carioca, funk pop, pop lgbtq+ brasileira, pop nacional</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3535</v>
+        <v>4315924</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Trap The Fato</t>
+          <t>SAL</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>PRADA PIET</t>
+          <t>SAL</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Derek, Alee, retroboy, TTF</t>
+          <t>PEDRO SAMPAIO, Pabllo Vittar</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="H11" t="n">
-        <v>156518</v>
+        <v>120000</v>
       </c>
     </row>
   </sheetData>
@@ -7316,321 +7320,361 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TTF</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>Lexa</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>funk carioca, funk pop, funk rj, pop nacional</t>
+        </is>
+      </c>
       <c r="C2" t="n">
-        <v>6032</v>
+        <v>2744400</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Trap The Fato</t>
+          <t>Combatchy (feat. MC Rebecca)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>BARRAS &amp; BARRAS</t>
+          <t>Combatchy (feat. MC Rebecca)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Derek, tchelo rodrigues, retroboy, TTF</t>
+          <t>Anitta, Lexa, Luísa Sonza, Rebecca</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H2" t="n">
-        <v>218603</v>
+        <v>157600</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TTF</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>Lexa</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>funk carioca, funk pop, funk rj, pop nacional</t>
+        </is>
+      </c>
       <c r="C3" t="n">
-        <v>6032</v>
+        <v>2744400</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Trap The Fato</t>
+          <t>LEXA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>NÓIS TA FORGANO</t>
+          <t>Chama Ela (feat. Pedro Sampaio)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Derek, Kyan, Celo1st, Neckklace, TTF</t>
+          <t>Lexa, PEDRO SAMPAIO</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H3" t="n">
-        <v>164892</v>
+        <v>120200</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TTF</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>Lexa</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>funk carioca, funk pop, funk rj, pop nacional</t>
+        </is>
+      </c>
       <c r="C4" t="n">
-        <v>6032</v>
+        <v>2744400</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Trap The Fato</t>
+          <t>Chama A Lexa</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>TRAP THE FATO</t>
+          <t>Sapequinha</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Derek, Leviano, Brandão85, éoTGL, TTF</t>
+          <t>Lexa, MC Lan</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H4" t="n">
-        <v>216329</v>
+        <v>134106</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TTF</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>Lexa</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>funk carioca, funk pop, funk rj, pop nacional</t>
+        </is>
+      </c>
       <c r="C5" t="n">
-        <v>6032</v>
+        <v>2744400</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Trap The Fato</t>
+          <t>Flash Volta</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ESSA VADIA ME ESTIGA</t>
+          <t>Flash Volta</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Derek, retroboy, TTF</t>
+          <t>Lexa, Gustavo Mioto</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H5" t="n">
-        <v>192240</v>
+        <v>178295</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TTF</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+          <t>Lexa</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>funk carioca, funk pop, funk rj, pop nacional</t>
+        </is>
+      </c>
       <c r="C6" t="n">
-        <v>6032</v>
+        <v>2744400</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Trap The Fato</t>
+          <t>Avisa Lá (feat. Rebecca)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ESSA É A VIDA DE UM GANGSTA 2</t>
+          <t>Avisa Lá (feat. Rebecca)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Derek, Neckklace, TTF</t>
+          <t>Anitta, Lexa, POCAH, Rebecca</t>
         </is>
       </c>
       <c r="G6" t="n">
         <v>55</v>
       </c>
       <c r="H6" t="n">
-        <v>160629</v>
+        <v>123870</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TTF</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
+          <t>Lexa</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>funk carioca, funk pop, funk rj, pop nacional</t>
+        </is>
+      </c>
       <c r="C7" t="n">
-        <v>6032</v>
+        <v>2744400</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Trap The Fato</t>
+          <t>Chama A Lexa</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SCOOBY DOO</t>
+          <t>Provocar</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Derek, Abbot, Celo1st, Neckklace, TTF</t>
+          <t>Lexa, Gloria Groove</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H7" t="n">
-        <v>212307</v>
+        <v>168138</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TTF</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
+          <t>Lexa</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>funk carioca, funk pop, funk rj, pop nacional</t>
+        </is>
+      </c>
       <c r="C8" t="n">
-        <v>6032</v>
+        <v>2744400</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Trap The Fato</t>
+          <t>LEXA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>TRAP THE FATO NÓIS FEZ EM 5</t>
+          <t>Quebrar Seu Coração (feat. Luísa Sonza)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Derek, tchelo rodrigues, Mattyahu, retroboy, TTF</t>
+          <t>Lexa, Luísa Sonza</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H8" t="n">
-        <v>260656</v>
+        <v>140800</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TTF</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
+          <t>Lexa</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>funk carioca, funk pop, funk rj, pop nacional</t>
+        </is>
+      </c>
       <c r="C9" t="n">
-        <v>6032</v>
+        <v>2744400</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Trap The Fato</t>
+          <t>Rabisca</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>PRESENÇA VIP 2</t>
+          <t>Rabisca</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Derek, Raffa Moreira, MC Igu, Jay Kay, TTF</t>
+          <t>Lexa, Thiago Pantaleão</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9" t="n">
-        <v>276224</v>
+        <v>123548</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>TTF</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
+          <t>Lexa</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>funk carioca, funk pop, funk rj, pop nacional</t>
+        </is>
+      </c>
       <c r="C10" t="n">
-        <v>6032</v>
+        <v>2744400</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Trap The Fato</t>
+          <t>Chama A Lexa</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>LUÍSA SONZA</t>
+          <t>Só Depois do Carnaval</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Derek, Sueth, Celo1st, DatBoyTwnty, TTF</t>
+          <t>Lexa</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H10" t="n">
-        <v>187941</v>
+        <v>166666</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TTF</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
+          <t>Lexa</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>funk carioca, funk pop, funk rj, pop nacional</t>
+        </is>
+      </c>
       <c r="C11" t="n">
-        <v>6032</v>
+        <v>2744400</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SEMPRE TRAVADO</t>
+          <t>Barbie (feat. Danny Bond)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SEMPRE TRAVADO</t>
+          <t>Barbie (feat. Danny Bond)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Derek, TTF</t>
+          <t>Rebecca, POCAH, Lexa, Danny Bond</t>
         </is>
       </c>
       <c r="G11" t="n">
         <v>51</v>
       </c>
       <c r="H11" t="n">
-        <v>105000</v>
+        <v>149514</v>
       </c>
     </row>
   </sheetData>
@@ -7697,361 +7741,361 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>tchelo rodrigues</t>
+          <t>LUDMILLA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>drill brasileiro</t>
+          <t>funk carioca, funk pop, funk rj, pagode baiano, pop nacional</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>39566</v>
+        <v>6805740</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Trap The Fato</t>
+          <t>No_se_ve.mp3</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>BARRAS &amp; BARRAS</t>
+          <t>No_se_ve.mp3</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Derek, tchelo rodrigues, retroboy, TTF</t>
+          <t>Emilia, LUDMILLA, ZECCA</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="H2" t="n">
-        <v>218603</v>
+        <v>203636</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>tchelo rodrigues</t>
+          <t>LUDMILLA</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>drill brasileiro</t>
+          <t>funk carioca, funk pop, funk rj, pagode baiano, pop nacional</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>39566</v>
+        <v>6805740</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Trap The Fato</t>
+          <t>Numanice #2 (Ao Vivo)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>TRAP THE FATO NÓIS FEZ EM 5</t>
+          <t>Insônia - Ao Vivo</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Derek, tchelo rodrigues, Mattyahu, retroboy, TTF</t>
+          <t>LUDMILLA, Marília Mendonça</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="H3" t="n">
-        <v>260656</v>
+        <v>181157</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>tchelo rodrigues</t>
+          <t>LUDMILLA</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>drill brasileiro</t>
+          <t>funk carioca, funk pop, funk rj, pagode baiano, pop nacional</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>39566</v>
+        <v>6805740</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>POKAZIDEIA</t>
+          <t>VILÃ</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>POKAZIDEIA</t>
+          <t>Sintomas de Prazer</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>tchelo rodrigues, retroboy</t>
+          <t>LUDMILLA</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="H4" t="n">
-        <v>136334</v>
+        <v>148800</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>tchelo rodrigues</t>
+          <t>LUDMILLA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>drill brasileiro</t>
+          <t>funk carioca, funk pop, funk rj, pagode baiano, pop nacional</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>39566</v>
+        <v>6805740</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>AMEX</t>
+          <t>Numanice #2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>AMEX</t>
+          <t>Maldivas</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Krawk, tchelo rodrigues, Jotapê</t>
+          <t>LUDMILLA</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="H5" t="n">
-        <v>258045</v>
+        <v>164141</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>tchelo rodrigues</t>
+          <t>LUDMILLA</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>drill brasileiro</t>
+          <t>funk carioca, funk pop, funk rj, pagode baiano, pop nacional</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>39566</v>
+        <v>6805740</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>INJURIADO</t>
+          <t>Sorriso Eu Gosto No Pagode - Parte 1 (Ao Vivo)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>INJURIADO</t>
+          <t>Ainda Gosto de Você / Já Era - Ao Vivo</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>tchelo rodrigues, retroboy</t>
+          <t>Sorriso Maroto, LUDMILLA, Belo</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="H6" t="n">
-        <v>150395</v>
+        <v>345053</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>tchelo rodrigues</t>
+          <t>LUDMILLA</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>drill brasileiro</t>
+          <t>funk carioca, funk pop, funk rj, pagode baiano, pop nacional</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>39566</v>
+        <v>6805740</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>KICKFLIP</t>
+          <t>A Força do Nosso Som Continua (Ao Vivo)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>KICKFLIP</t>
+          <t>Teu Segredo - Ao Vivo</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>tchelo rodrigues, retroboy</t>
+          <t>Vou pro Sereno, LUDMILLA</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="H7" t="n">
-        <v>157978</v>
+        <v>182860</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>tchelo rodrigues</t>
+          <t>LUDMILLA</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>drill brasileiro</t>
+          <t>funk carioca, funk pop, funk rj, pagode baiano, pop nacional</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>39566</v>
+        <v>6805740</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Trap The Fato</t>
+          <t>Poesia Acústica 10: Recomeçar</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>DE JET NO PORSHE</t>
+          <t>Poesia Acústica 10: Recomeçar</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Derek, tchelo rodrigues, retroboy, TTF</t>
+          <t>Pineapple StormTv, MC Cabelinho, Orochi, JayA Luuck, Pk, Black, Delacruz, BK, LUDMILLA, Salve Malak</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="H8" t="n">
-        <v>197818</v>
+        <v>682816</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>tchelo rodrigues</t>
+          <t>LUDMILLA</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>drill brasileiro</t>
+          <t>funk carioca, funk pop, funk rj, pagode baiano, pop nacional</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>39566</v>
+        <v>6805740</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PALPITE</t>
+          <t>Numanice Lud Session - Modo Avião / A Tua Voz / 700 Por Hora / Radar / A Música Mais Triste do Ano (Ao vivo)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>PALPITE</t>
+          <t>Numanice Lud Session - Modo Avião / A Tua Voz / 700 Por Hora / Radar / A Música Mais Triste do Ano - Ao vivo</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>tchelo rodrigues, retroboy</t>
+          <t>LUDMILLA, Gloria Groove</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="H9" t="n">
-        <v>138011</v>
+        <v>529585</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>tchelo rodrigues</t>
+          <t>LUDMILLA</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>drill brasileiro</t>
+          <t>funk carioca, funk pop, funk rj, pagode baiano, pop nacional</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>39566</v>
+        <v>6805740</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>OgEMr</t>
+          <t>VILÃ</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>PRODUTO CARO</t>
+          <t>Brigas Demais</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Froid, Ecologyk, tchelo rodrigues</t>
+          <t>LUDMILLA, Delacruz, Gaab</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="H10" t="n">
-        <v>143697</v>
+        <v>248000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>tchelo rodrigues</t>
+          <t>LUDMILLA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>drill brasileiro</t>
+          <t>funk carioca, funk pop, funk rj, pagode baiano, pop nacional</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>39566</v>
+        <v>6805740</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sem Suporte</t>
+          <t>Numanice #2 (Ao Vivo) - Deluxe</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sem Suporte</t>
+          <t>Não vá me enganar - Ao Vivo</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>tchelo rodrigues, Collors Brasil</t>
+          <t>LUDMILLA, Belo</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="H11" t="n">
-        <v>157835</v>
+        <v>187796</v>
       </c>
     </row>
   </sheetData>
@@ -8118,361 +8162,361 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Neckklace</t>
+          <t>Luísa Sonza</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>funk carioca, pop nacional</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5795</v>
+        <v>4900137</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Mantém o Pique</t>
+          <t>Escândalo Íntimo</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Mantém o Pique</t>
+          <t>Chico</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ryu, the Runner, Neckklace, Salve Crazy</t>
+          <t>Luísa Sonza</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="H2" t="n">
-        <v>163880</v>
+        <v>182111</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Neckklace</t>
+          <t>Luísa Sonza</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>funk carioca, pop nacional</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5795</v>
+        <v>4900137</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Trap The Fato</t>
+          <t>Escândalo Íntimo</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>NÓIS TA FORGANO</t>
+          <t>A Dona Aranha</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Derek, Kyan, Celo1st, Neckklace, TTF</t>
+          <t>Luísa Sonza</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="H3" t="n">
-        <v>164892</v>
+        <v>124455</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Neckklace</t>
+          <t>Luísa Sonza</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>funk carioca, pop nacional</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5795</v>
+        <v>4900137</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Trap The Fato</t>
+          <t>Escândalo Íntimo</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ESSA É A VIDA DE UM GANGSTA 2</t>
+          <t>Campo De Morango</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Derek, Neckklace, TTF</t>
+          <t>Luísa Sonza</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="H4" t="n">
-        <v>160629</v>
+        <v>76248</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Neckklace</t>
+          <t>Luísa Sonza</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>funk carioca, pop nacional</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5795</v>
+        <v>4900137</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Trap The Fato</t>
+          <t>Escândalo Íntimo</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SCOOBY DOO</t>
+          <t>Penhasco2</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Derek, Abbot, Celo1st, Neckklace, TTF</t>
+          <t>Luísa Sonza, Demi Lovato</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="H5" t="n">
-        <v>212307</v>
+        <v>173228</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Neckklace</t>
+          <t>Luísa Sonza</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>funk carioca, pop nacional</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5795</v>
+        <v>4900137</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Trap The Fato</t>
+          <t>Escândalo Íntimo</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>BATEU, FUDEU</t>
+          <t>Surreal</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Derek, Lil Fire 666, Neckklace, Slanderr, TTF</t>
+          <t>Luísa Sonza, Baco Exu do Blues</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="H6" t="n">
-        <v>126641</v>
+        <v>234730</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Neckklace</t>
+          <t>Luísa Sonza</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>funk carioca, pop nacional</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5795</v>
+        <v>4900137</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Trap The Fato</t>
+          <t>Escândalo Íntimo</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ATRÁS DE TU</t>
+          <t>Principalmente Me Sinto Arrasada</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Derek, The Boy, Neckklace, TTF</t>
+          <t>Luísa Sonza</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="H7" t="n">
-        <v>183436</v>
+        <v>173725</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Neckklace</t>
+          <t>Luísa Sonza</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>funk carioca, pop nacional</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5795</v>
+        <v>4900137</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Essa Minha Vida Bandida</t>
+          <t>Escândalo Íntimo</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Faço Dinheiro</t>
+          <t>Iguaria</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dfideliz, Neckklace</t>
+          <t>Luísa Sonza</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="H8" t="n">
-        <v>115750</v>
+        <v>222435</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Neckklace</t>
+          <t>Luísa Sonza</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>funk carioca, pop nacional</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5795</v>
+        <v>4900137</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Trap The Fato</t>
+          <t>Escândalo Íntimo</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FUMANDO EM LUGAR PÚBLICO</t>
+          <t>Carnificina</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Derek, Neckklace, TTF</t>
+          <t>Luísa Sonza</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="H9" t="n">
-        <v>129781</v>
+        <v>140196</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Neckklace</t>
+          <t>Luísa Sonza</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>funk carioca, pop nacional</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5795</v>
+        <v>4900137</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Essa Minha Vida Bandida</t>
+          <t>Poesia Acústica 13</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Preto Rico 2</t>
+          <t>Poesia Acústica 13</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Dfideliz, Nagalli, Neckklace, Neconbeat</t>
+          <t>Pineapple StormTv, Chris MC, Salve Malak, Tz da Coronel, MC Cabelinho, Chefin, L7NNON, Luísa Sonza, Oruam, Xamã, N.I.N.A</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="H10" t="n">
-        <v>120000</v>
+        <v>628124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Neckklace</t>
+          <t>Luísa Sonza</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>trap brasileiro</t>
+          <t>funk carioca, pop nacional</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5795</v>
+        <v>4900137</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Essa Minha Vida Bandida</t>
+          <t>Escândalo Íntimo</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Grato A Deus</t>
+          <t>Luísa Manequim</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dfideliz, Neckklace</t>
+          <t>Luísa Sonza</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="H11" t="n">
-        <v>131477</v>
+        <v>149629</v>
       </c>
     </row>
   </sheetData>
@@ -8539,361 +8583,361 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MC Igu</t>
+          <t>IZA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>brazilian hip hop, plug brasileiro</t>
+          <t>afrofuturismo brasileiro, pop nacional, r&amp;b brasileiro</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>444532</v>
+        <v>4624694</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>EVDC DELUXE</t>
+          <t>AFRODHIT</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Modelo</t>
+          <t>Fé nas Maluca</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ryu, the Runner, MC Igu, Brandão85, Stuani</t>
+          <t>IZA, Mc Carol</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>168000</v>
+        <v>143221</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MC Igu</t>
+          <t>IZA</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>brazilian hip hop, plug brasileiro</t>
+          <t>afrofuturismo brasileiro, pop nacional, r&amp;b brasileiro</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>444532</v>
+        <v>4624694</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EVDC DELUXE</t>
+          <t>AFRODHIT</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Ela fica de cara</t>
+          <t>Que Se Vá</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ryu, the Runner, MC Igu, Stuani</t>
+          <t>IZA</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="H3" t="n">
-        <v>145454</v>
+        <v>144686</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MC Igu</t>
+          <t>IZA</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>brazilian hip hop, plug brasileiro</t>
+          <t>afrofuturismo brasileiro, pop nacional, r&amp;b brasileiro</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>444532</v>
+        <v>4624694</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>POC POC</t>
+          <t>Meu talismã</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>POC POC</t>
+          <t>Meu talismã</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Recayd Mob, Dfideliz, Derek, Jé Santiago, MC Igu, N.A.N.A., BONE, The Boy</t>
+          <t>IZA</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="H4" t="n">
-        <v>223732</v>
+        <v>165176</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MC Igu</t>
+          <t>IZA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>brazilian hip hop, plug brasileiro</t>
+          <t>afrofuturismo brasileiro, pop nacional, r&amp;b brasileiro</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>444532</v>
+        <v>4624694</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Trap The Fato Deluxe</t>
+          <t>Interessante</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>EU SEI QUE ELA NOTOU</t>
+          <t>Me Perdoa</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Derek, MC Igu</t>
+          <t>Ferrugem, IZA</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="H5" t="n">
-        <v>249603</v>
+        <v>219134</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MC Igu</t>
+          <t>IZA</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>brazilian hip hop, plug brasileiro</t>
+          <t>afrofuturismo brasileiro, pop nacional, r&amp;b brasileiro</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>444532</v>
+        <v>4624694</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Trap The Fato</t>
+          <t>Dona de mim</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>PRESENÇA VIP 2</t>
+          <t>Dona de mim</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Derek, Raffa Moreira, MC Igu, Jay Kay, TTF</t>
+          <t>IZA</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="H6" t="n">
-        <v>276224</v>
+        <v>208941</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MC Igu</t>
+          <t>IZA</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>brazilian hip hop, plug brasileiro</t>
+          <t>afrofuturismo brasileiro, pop nacional, r&amp;b brasileiro</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>444532</v>
+        <v>4624694</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ÉTPM?!</t>
+          <t>Brisa</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ÉTPM</t>
+          <t>Brisa</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Jovem Dex, MC Igu, Yunk Vino</t>
+          <t>IZA</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="H7" t="n">
-        <v>180937</v>
+        <v>151500</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MC Igu</t>
+          <t>IZA</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>brazilian hip hop, plug brasileiro</t>
+          <t>afrofuturismo brasileiro, pop nacional, r&amp;b brasileiro</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>444532</v>
+        <v>4624694</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Dia de Patrão</t>
+          <t>Fé</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Dia de Patrão</t>
+          <t>Fé</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MC Igu, Ryu, the Runner</t>
+          <t>IZA</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="H8" t="n">
-        <v>150240</v>
+        <v>185400</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MC Igu</t>
+          <t>IZA</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>brazilian hip hop, plug brasileiro</t>
+          <t>afrofuturismo brasileiro, pop nacional, r&amp;b brasileiro</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>444532</v>
+        <v>4624694</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Calzone Tapes, Vol. 2</t>
+          <t>Dona de mim</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Flack Jack</t>
+          <t>Pesadão</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Recayd Mob, BONE, Derek, Dfideliz, MC Igu, Jé Santiago</t>
+          <t>IZA, Marcelo Falcão</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="H9" t="n">
-        <v>241879</v>
+        <v>199200</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MC Igu</t>
+          <t>IZA</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>brazilian hip hop, plug brasileiro</t>
+          <t>afrofuturismo brasileiro, pop nacional, r&amp;b brasileiro</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>444532</v>
+        <v>4624694</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Ak do Japão</t>
+          <t>Será</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Ak do Japão</t>
+          <t>Será</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MC Igu, Borges</t>
+          <t>Lagum, IZA</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="H10" t="n">
-        <v>160063</v>
+        <v>177299</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MC Igu</t>
+          <t>IZA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>brazilian hip hop, plug brasileiro</t>
+          <t>afrofuturismo brasileiro, pop nacional, r&amp;b brasileiro</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>444532</v>
+        <v>4624694</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Nicole Bahls</t>
+          <t>Sem Filtro</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Nicole Bahls</t>
+          <t>Sem Filtro</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>MC Igu, Derek, Klyn</t>
+          <t>IZA</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="H11" t="n">
-        <v>236414</v>
+        <v>206181</v>
       </c>
     </row>
   </sheetData>
@@ -8960,361 +9004,361 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ryu, the Runner</t>
+          <t>Gloria Groove</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>detroit trap brasileiro, trap brasileiro</t>
+          <t>funk carioca, pop lgbtq+ brasileira</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>235492</v>
+        <v>2978285</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>EVDC DELUXE</t>
+          <t>Poesia Acústica 14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Beyoncé 2</t>
+          <t>Poesia Acústica 14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ryu, the Runner, Yunk Vino, Stef, Stuani</t>
+          <t>Pineapple StormTv, Cesar Mc, MC Ryan SP, Lourena, Major RD, Derxan, WIU, Djonga, KayBlack, Gloria Groove, Salve Malak</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>188160</v>
+        <v>849230</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ryu, the Runner</t>
+          <t>Gloria Groove</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>detroit trap brasileiro, trap brasileiro</t>
+          <t>funk carioca, pop lgbtq+ brasileira</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>235492</v>
+        <v>2978285</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Essa é a Vida de um Corredor</t>
+          <t>LITTLE LOVE</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DAMN!</t>
+          <t>NOSSA MÚSICA</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ryu, the Runner, Luk The Real, Emitê Único, 6ee, Salve Crazy</t>
+          <t>MC Cabelinho, Gloria Groove, Dallass</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H3" t="n">
-        <v>136875</v>
+        <v>202955</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ryu, the Runner</t>
+          <t>Gloria Groove</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>detroit trap brasileiro, trap brasileiro</t>
+          <t>funk carioca, pop lgbtq+ brasileira</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>235492</v>
+        <v>2978285</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>EVDC DELUXE</t>
+          <t>LADY LESTE</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FYE</t>
+          <t>VERMELHO</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ryu, the Runner, Veigh, Niink, 6ee</t>
+          <t>Gloria Groove</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H4" t="n">
-        <v>151278</v>
+        <v>152690</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ryu, the Runner</t>
+          <t>Gloria Groove</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>detroit trap brasileiro, trap brasileiro</t>
+          <t>funk carioca, pop lgbtq+ brasileira</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>235492</v>
+        <v>2978285</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>EVDC DELUXE</t>
+          <t>Numanice Lud Session - Modo Avião / A Tua Voz / 700 Por Hora / Radar / A Música Mais Triste do Ano (Ao vivo)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Me Sinto Oruam</t>
+          <t>Numanice Lud Session - Modo Avião / A Tua Voz / 700 Por Hora / Radar / A Música Mais Triste do Ano - Ao vivo</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ryu, the Runner, Leviano, Prod.Chipzz</t>
+          <t>LUDMILLA, Gloria Groove</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="H5" t="n">
-        <v>142500</v>
+        <v>529585</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ryu, the Runner</t>
+          <t>Gloria Groove</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>detroit trap brasileiro, trap brasileiro</t>
+          <t>funk carioca, pop lgbtq+ brasileira</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>235492</v>
+        <v>2978285</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EVDC DELUXE</t>
+          <t>LADY LESTE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Vandame</t>
+          <t>A QUEDA</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ryu, the Runner, Derek, Neckklace</t>
+          <t>Gloria Groove</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="H6" t="n">
-        <v>159298</v>
+        <v>173455</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ryu, the Runner</t>
+          <t>Gloria Groove</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>detroit trap brasileiro, trap brasileiro</t>
+          <t>funk carioca, pop lgbtq+ brasileira</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>235492</v>
+        <v>2978285</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Essa é a Vida de um Corredor</t>
+          <t>Noitada</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Business</t>
+          <t>AMEIANOITE</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ryu, the Runner, Gu$Z, Salve Crazy</t>
+          <t>Pabllo Vittar, Gloria Groove</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="H7" t="n">
-        <v>132923</v>
+        <v>166013</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ryu, the Runner</t>
+          <t>Gloria Groove</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>detroit trap brasileiro, trap brasileiro</t>
+          <t>funk carioca, pop lgbtq+ brasileira</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>235492</v>
+        <v>2978285</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Mantém o Pique</t>
+          <t>Affair</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Mantém o Pique</t>
+          <t>Radar</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ryu, the Runner, Neckklace, Salve Crazy</t>
+          <t>Gloria Groove</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H8" t="n">
-        <v>163880</v>
+        <v>182448</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ryu, the Runner</t>
+          <t>Gloria Groove</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>detroit trap brasileiro, trap brasileiro</t>
+          <t>funk carioca, pop lgbtq+ brasileira</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>235492</v>
+        <v>2978285</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Lista De Contato</t>
+          <t>A Tua Voz</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Lista De Contato</t>
+          <t>A Tua Voz</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dudu, Ryu, the Runner, Ecologyk</t>
+          <t>Gloria Groove</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H9" t="n">
-        <v>122826</v>
+        <v>195245</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ryu, the Runner</t>
+          <t>Gloria Groove</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>detroit trap brasileiro, trap brasileiro</t>
+          <t>funk carioca, pop lgbtq+ brasileira</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>235492</v>
+        <v>2978285</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Chocolate</t>
+          <t>PROIBIDONA</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Chocolate</t>
+          <t>PROIBIDONA</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MD Chefe, Ryu, the Runner</t>
+          <t>Gloria Groove, Anitta, Valesca Popozuda</t>
         </is>
       </c>
       <c r="G10" t="n">
         <v>62</v>
       </c>
       <c r="H10" t="n">
-        <v>172941</v>
+        <v>157649</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ryu, the Runner</t>
+          <t>Gloria Groove</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>detroit trap brasileiro, trap brasileiro</t>
+          <t>funk carioca, pop lgbtq+ brasileira</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>235492</v>
+        <v>2978285</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>É Quem?</t>
+          <t>085 RMX</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Cruzeiro do Ney</t>
+          <t>085 RMX</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Senndy, Emitê Único, Ryu, the Runner</t>
+          <t>MC Rogerinho, Gloria Groove</t>
         </is>
       </c>
       <c r="G11" t="n">
         <v>61</v>
       </c>
       <c r="H11" t="n">
-        <v>175031</v>
+        <v>163102</v>
       </c>
     </row>
   </sheetData>
@@ -9381,361 +9425,361 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>The Boy</t>
+          <t>MC Kevinho</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>trap pesado</t>
+          <t>funk carioca, funk ostentacao, funk pop, sertanejo universitario</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>134202</v>
+        <v>8163585</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Trap The Fato Deluxe</t>
+          <t>Olha A Explosão</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>PORNSTAR</t>
+          <t>Olha A Explosão</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Derek, The Boy</t>
+          <t>MC Kevinho</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="H2" t="n">
-        <v>194430</v>
+        <v>162053</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>The Boy</t>
+          <t>MC Kevinho</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>trap pesado</t>
+          <t>funk carioca, funk ostentacao, funk pop, sertanejo universitario</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>134202</v>
+        <v>8163585</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>POC POC</t>
+          <t>O Grave Bater</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>POC POC</t>
+          <t>O Grave Bater</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Recayd Mob, Dfideliz, Derek, Jé Santiago, MC Igu, N.A.N.A., BONE, The Boy</t>
+          <t>MC Kevinho</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="H3" t="n">
-        <v>223732</v>
+        <v>181903</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>The Boy</t>
+          <t>MC Kevinho</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>trap pesado</t>
+          <t>funk carioca, funk ostentacao, funk pop, sertanejo universitario</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>134202</v>
+        <v>8163585</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Trap The Fato</t>
+          <t>Agora é Tudo Meu</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ATRÁS DE TU</t>
+          <t>Agora é Tudo Meu</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Derek, The Boy, Neckklace, TTF</t>
+          <t>DENNIS, MC Kevinho</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="H4" t="n">
-        <v>183436</v>
+        <v>171998</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>The Boy</t>
+          <t>MC Kevinho</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>trap pesado</t>
+          <t>funk carioca, funk ostentacao, funk pop, sertanejo universitario</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>134202</v>
+        <v>8163585</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Nicole Bahls</t>
+          <t>Eterna Sacanagem</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Nicole Bahls</t>
+          <t>Eterna Sacanagem</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Recayd Mob, Derek, MC Igu, Dfideliz, Jé Santiago, N.A.N.A., BONE, The Boy</t>
+          <t>MC JottaPê, MC Kekel, MC Kevinho</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="H5" t="n">
-        <v>241567</v>
+        <v>168800</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>The Boy</t>
+          <t>MC Kevinho</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>trap pesado</t>
+          <t>funk carioca, funk ostentacao, funk pop, sertanejo universitario</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>134202</v>
+        <v>8163585</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Se Ela Quer P**</t>
+          <t>Mc Kevinho</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Se Ela Quer P**</t>
+          <t>Tumbalatum</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Recayd Mob, N.A.N.A., Derek, Dfideliz, Jé Santiago, BONE, The Boy, MC Igu</t>
+          <t>MC Kevinho</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="H6" t="n">
-        <v>122000</v>
+        <v>123017</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>The Boy</t>
+          <t>MC Kevinho</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>trap pesado</t>
+          <t>funk carioca, funk ostentacao, funk pop, sertanejo universitario</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>134202</v>
+        <v>8163585</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Apolo Nästy</t>
+          <t>Deixa Ela Beijar</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CELINE CHANEL</t>
+          <t>Deixa Ela Beijar</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rudies Flacko, The Boy</t>
+          <t>Matheus &amp; Kauan, MC Kevinho</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="H7" t="n">
-        <v>131908</v>
+        <v>166410</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>The Boy</t>
+          <t>MC Kevinho</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>trap pesado</t>
+          <t>funk carioca, funk ostentacao, funk pop, sertanejo universitario</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>134202</v>
+        <v>8163585</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Balança a Raba (feat. MC Igu)</t>
+          <t>Encaixa</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Balança a Raba (feat. MC Igu)</t>
+          <t>Encaixa</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>N.A.N.A., Igor Hicks, The Boy, MC Igu</t>
+          <t>MC Kevinho, Leo Santana</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="H8" t="n">
-        <v>161167</v>
+        <v>169364</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>The Boy</t>
+          <t>MC Kevinho</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>trap pesado</t>
+          <t>funk carioca, funk ostentacao, funk pop, sertanejo universitario</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>134202</v>
+        <v>8163585</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Faneto Freestyle (feat. Dfideliz)</t>
+          <t>Terremoto</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Faneto Freestyle (feat. Dfideliz)</t>
+          <t>Terremoto</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>The Boy, Dfideliz</t>
+          <t>Anitta, MC Kevinho</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="H9" t="n">
-        <v>130894</v>
+        <v>146276</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>The Boy</t>
+          <t>MC Kevinho</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>trap pesado</t>
+          <t>funk carioca, funk ostentacao, funk pop, sertanejo universitario</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>134202</v>
+        <v>8163585</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LACHEF</t>
+          <t>Rabiola</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>BOO</t>
+          <t>Rabiola</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>The Boy, MC Igu</t>
+          <t>MC Kevinho</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="H10" t="n">
-        <v>178880</v>
+        <v>175660</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>The Boy</t>
+          <t>MC Kevinho</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>trap pesado</t>
+          <t>funk carioca, funk ostentacao, funk pop, sertanejo universitario</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>134202</v>
+        <v>8163585</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Apolo Nästy</t>
+          <t>Ta Tum Tum</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sem Opção</t>
+          <t>Ta Tum Tum</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rudies Flacko, The Boy</t>
+          <t>MC Kevinho, Simone &amp; Simaria</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="H11" t="n">
-        <v>153066</v>
+        <v>164157</v>
       </c>
     </row>
   </sheetData>
